--- a/input_data/fuel_mixing_assumptions.xlsx
+++ b/input_data/fuel_mixing_assumptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APERC\transport_model_9th_edition\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056E356-FEA9-4AEA-BE9F-3DD0ACB84FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751704C-4471-4832-8736-121FC9C1B824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="6564" windowWidth="23040" windowHeight="12204" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="demand_side_constant" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$236</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="72">
   <si>
     <t>Region</t>
   </si>
@@ -250,12 +250,18 @@
   <si>
     <t>16_x_efuel</t>
   </si>
+  <si>
+    <t>07_06_kerosene</t>
+  </si>
+  <si>
+    <t>16_01_biogas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +295,12 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF9ECBFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF9ECBFF"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -329,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -340,8 +352,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1373,7 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D2">
@@ -1373,13 +1388,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D3">
         <v>2020</v>
@@ -1393,13 +1408,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D4">
         <v>2020</v>
@@ -1413,13 +1428,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D5">
         <v>2020</v>
@@ -1433,12 +1448,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D6">
@@ -1453,316 +1468,316 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D10">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D18">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D22">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="E22">
         <v>0.05</v>
@@ -1773,13 +1788,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D23">
         <v>2030</v>
@@ -1793,16 +1808,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E24">
         <v>0.05</v>
@@ -1813,16 +1828,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E25">
         <v>0.05</v>
@@ -1833,16 +1848,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D26">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E26">
         <v>0.05</v>
@@ -1853,13 +1868,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D27">
         <v>2035</v>
@@ -1873,16 +1888,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E28">
         <v>0.05</v>
@@ -1893,16 +1908,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E29">
         <v>0.05</v>
@@ -1913,16 +1928,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E30">
         <v>0.05</v>
@@ -1933,36 +1948,36 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>2040</v>
+        <v>2022</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="E32">
         <v>0.05</v>
@@ -1973,102 +1988,102 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E33">
         <v>0.05</v>
       </c>
       <c r="F33">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D34">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D35">
-        <v>2100</v>
+        <v>2045</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F35">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D36">
         <v>2100</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>38</v>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D37">
-        <v>2100</v>
+        <v>2020</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2076,93 +2091,93 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D39">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E42">
         <v>0.05</v>
@@ -2173,12 +2188,12 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D43">
@@ -2193,16 +2208,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E44">
         <v>0.05</v>
@@ -2213,16 +2228,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E45">
         <v>0.05</v>
@@ -2236,13 +2251,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E46">
         <v>0.05</v>
@@ -2258,11 +2273,11 @@
       <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D47">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E47">
         <v>0.05</v>
@@ -2275,11 +2290,11 @@
       <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>44</v>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D48">
         <v>2040</v>
@@ -2295,14 +2310,14 @@
       <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>38</v>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D49">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E49">
         <v>0.05</v>
@@ -2313,16 +2328,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E50">
         <v>0.05</v>
@@ -2333,16 +2348,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D51">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E51">
         <v>0.05</v>
@@ -2353,16 +2368,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E52">
         <v>0.05</v>
@@ -2373,16 +2388,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E53">
         <v>0.05</v>
@@ -2396,13 +2411,13 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D54">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E54">
         <v>0.05</v>
@@ -2413,12 +2428,12 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D55">
@@ -2433,16 +2448,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D56">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E56">
         <v>0.05</v>
@@ -2453,16 +2468,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D57">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E57">
         <v>0.05</v>
@@ -2473,13 +2488,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D58">
         <v>2030</v>
@@ -2493,16 +2508,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D59">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E59">
         <v>0.05</v>
@@ -2513,16 +2528,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D60">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E60">
         <v>0.05</v>
@@ -2533,16 +2548,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D61">
-        <v>2030</v>
+        <v>2100</v>
       </c>
       <c r="E61">
         <v>0.05</v>
@@ -2553,13 +2568,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D62">
         <v>2035</v>
@@ -2573,16 +2588,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D63">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E63">
         <v>0.05</v>
@@ -2593,16 +2608,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D64">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E64">
         <v>0.05</v>
@@ -2613,16 +2628,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D65">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E65">
         <v>0.05</v>
@@ -2633,36 +2648,36 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D66">
-        <v>2040</v>
+        <v>2022</v>
       </c>
       <c r="E66">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D67">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="E67">
         <v>0.05</v>
@@ -2673,196 +2688,196 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D68">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E68">
         <v>0.05</v>
       </c>
       <c r="F68">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D69">
         <v>2040</v>
       </c>
       <c r="E69">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F69">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D70">
-        <v>2100</v>
+        <v>2045</v>
       </c>
       <c r="E70">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F70">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D71">
         <v>2100</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F71">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D72">
-        <v>2100</v>
+        <v>2020</v>
       </c>
       <c r="E72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D73">
-        <v>2100</v>
+        <v>2020</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>45</v>
       </c>
-      <c r="B74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>42</v>
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D74">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E75">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D76">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D77">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="E77">
         <v>0.05</v>
@@ -2873,16 +2888,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D78">
-        <v>2022</v>
+        <v>2035</v>
       </c>
       <c r="E78">
         <v>0.05</v>
@@ -2893,16 +2908,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D79">
-        <v>2022</v>
+        <v>2040</v>
       </c>
       <c r="E79">
         <v>0.05</v>
@@ -2913,16 +2928,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D80">
-        <v>2022</v>
+        <v>2100</v>
       </c>
       <c r="E80">
         <v>0.05</v>
@@ -2933,16 +2948,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D81">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E81">
         <v>0.05</v>
@@ -2953,16 +2968,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D82">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E82">
         <v>0.05</v>
@@ -2973,16 +2988,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D83">
-        <v>2027</v>
+        <v>2040</v>
       </c>
       <c r="E83">
         <v>0.05</v>
@@ -2993,16 +3008,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D84">
-        <v>2027</v>
+        <v>2100</v>
       </c>
       <c r="E84">
         <v>0.05</v>
@@ -3013,16 +3028,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D85">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="E85">
         <v>0.05</v>
@@ -3033,13 +3048,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D86">
         <v>2030</v>
@@ -3053,16 +3068,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D87">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E87">
         <v>0.05</v>
@@ -3073,16 +3088,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D88">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E88">
         <v>0.05</v>
@@ -3093,16 +3108,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D89">
-        <v>2030</v>
+        <v>2100</v>
       </c>
       <c r="E89">
         <v>0.05</v>
@@ -3115,14 +3130,14 @@
       <c r="A90" t="s">
         <v>45</v>
       </c>
-      <c r="B90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>42</v>
+      <c r="B90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D90">
-        <v>2035</v>
+        <v>2021</v>
       </c>
       <c r="E90">
         <v>0.05</v>
@@ -3135,14 +3150,14 @@
       <c r="A91" t="s">
         <v>45</v>
       </c>
-      <c r="B91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>43</v>
+      <c r="B91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D91">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="E91">
         <v>0.05</v>
@@ -3155,14 +3170,14 @@
       <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D92">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E92">
         <v>0.05</v>
@@ -3175,14 +3190,14 @@
       <c r="A93" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D93">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E93">
         <v>0.05</v>
@@ -3195,14 +3210,14 @@
       <c r="A94" t="s">
         <v>45</v>
       </c>
-      <c r="B94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>42</v>
+      <c r="B94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D94">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E94">
         <v>0.05</v>
@@ -3215,11 +3230,11 @@
       <c r="A95" t="s">
         <v>45</v>
       </c>
-      <c r="B95" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>43</v>
+      <c r="B95" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D95">
         <v>2050</v>
@@ -3235,14 +3250,14 @@
       <c r="A96" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D96">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E96">
         <v>0.05</v>
@@ -3253,16 +3268,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D97">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E97">
         <v>0.05</v>
@@ -3273,16 +3288,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D98">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E98">
         <v>0.05</v>
@@ -3293,16 +3308,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D99">
-        <v>2100</v>
+        <v>2045</v>
       </c>
       <c r="E99">
         <v>0.05</v>
@@ -3313,12 +3328,12 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D100">
@@ -3333,36 +3348,36 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D101">
-        <v>2100</v>
+        <v>2022</v>
       </c>
       <c r="E101">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D102">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E102">
         <v>0.05</v>
@@ -3373,13 +3388,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D103">
         <v>2035</v>
@@ -3393,16 +3408,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D104">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E104">
         <v>0.05</v>
@@ -3413,16 +3428,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D105">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E105">
         <v>0.05</v>
@@ -3433,16 +3448,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D106">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E106">
         <v>0.05</v>
@@ -3453,116 +3468,116 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D107">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E107">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D108">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E108">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D109">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E109">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
-      <c r="B110" t="s">
-        <v>37</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>42</v>
+      <c r="B110" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D110">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="E110">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D111">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="E111">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D112">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="E112">
         <v>0.05</v>
@@ -3573,16 +3588,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D113">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="E113">
         <v>0.05</v>
@@ -3593,16 +3608,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>37</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D114">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E114">
         <v>0.05</v>
@@ -3613,13 +3628,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D115">
         <v>2100</v>
@@ -3633,16 +3648,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D116">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E116">
         <v>0.05</v>
@@ -3653,16 +3668,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D117">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E117">
         <v>0.05</v>
@@ -3673,96 +3688,96 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D118">
-        <v>2022</v>
+        <v>2040</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D119">
-        <v>2022</v>
+        <v>2100</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D120">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D121">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>33</v>
-      </c>
-      <c r="B122" t="s">
-        <v>37</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D122">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E122">
         <v>0.05</v>
@@ -3773,16 +3788,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>33</v>
-      </c>
-      <c r="B123" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D123">
-        <v>2027</v>
+        <v>2040</v>
       </c>
       <c r="E123">
         <v>0.05</v>
@@ -3793,16 +3808,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>33</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D124">
-        <v>2027</v>
+        <v>2100</v>
       </c>
       <c r="E124">
         <v>0.05</v>
@@ -3813,16 +3828,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D125">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="E125">
         <v>0.05</v>
@@ -3833,36 +3848,36 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>33</v>
-      </c>
-      <c r="B126" t="s">
-        <v>37</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D126">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="E126">
         <v>0.05</v>
       </c>
       <c r="F126">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D127">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E127">
         <v>0.05</v>
@@ -3873,16 +3888,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D128">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E128">
         <v>0.05</v>
@@ -3893,13 +3908,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D129">
         <v>2035</v>
@@ -3908,41 +3923,41 @@
         <v>0.05</v>
       </c>
       <c r="F129">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>33</v>
-      </c>
-      <c r="B130" t="s">
-        <v>37</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D130">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E130">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F130">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>33</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D131">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E131">
         <v>0.05</v>
@@ -3953,16 +3968,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D132">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E132">
         <v>0.05</v>
@@ -3973,56 +3988,56 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" t="s">
-        <v>35</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D133">
         <v>2040</v>
       </c>
       <c r="E133">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F133">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>33</v>
-      </c>
-      <c r="B134" t="s">
-        <v>37</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D134">
         <v>2045</v>
       </c>
       <c r="E134">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F134">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>33</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D135">
-        <v>2045</v>
+        <v>2100</v>
       </c>
       <c r="E135">
         <v>0.05</v>
@@ -4035,74 +4050,74 @@
       <c r="A136" t="s">
         <v>33</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D136">
-        <v>2045</v>
+        <v>2022</v>
       </c>
       <c r="E136">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>33</v>
       </c>
-      <c r="B137" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>43</v>
+      <c r="B137" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D137">
-        <v>2045</v>
+        <v>2027</v>
       </c>
       <c r="E137">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F137">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>33</v>
       </c>
-      <c r="B138" t="s">
-        <v>37</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>42</v>
+      <c r="B138" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D138">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E138">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F138">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>33</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C139" s="4" t="s">
+      <c r="B139" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D139">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E139">
         <v>0.05</v>
@@ -4115,14 +4130,14 @@
       <c r="A140" t="s">
         <v>33</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D140">
-        <v>2100</v>
+        <v>2045</v>
       </c>
       <c r="E140">
         <v>0.05</v>
@@ -4135,34 +4150,34 @@
       <c r="A141" t="s">
         <v>33</v>
       </c>
-      <c r="B141" t="s">
-        <v>35</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>43</v>
+      <c r="B141" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D141">
         <v>2100</v>
       </c>
       <c r="E141">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F141">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D142">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4173,16 +4188,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D143">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4193,168 +4208,4508 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D144">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E144">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D145">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E145">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D146">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="E146">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D147">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E147">
         <v>0.05</v>
       </c>
       <c r="F147">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D148">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E148">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F148">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D149">
         <v>2040</v>
       </c>
       <c r="E149">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F149">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D150">
         <v>2100</v>
       </c>
       <c r="E150">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F150">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151">
+        <v>2030</v>
+      </c>
+      <c r="E151">
+        <v>0.05</v>
+      </c>
+      <c r="F151">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>70</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D152">
+        <v>2035</v>
+      </c>
+      <c r="E152">
+        <v>0.05</v>
+      </c>
+      <c r="F152">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>70</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D153">
+        <v>2040</v>
+      </c>
+      <c r="E153">
+        <v>0.05</v>
+      </c>
+      <c r="F153">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>70</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154">
+        <v>2100</v>
+      </c>
+      <c r="E154">
+        <v>0.05</v>
+      </c>
+      <c r="F154">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>46</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B155" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155">
+        <v>2021</v>
+      </c>
+      <c r="E155">
+        <v>0.05</v>
+      </c>
+      <c r="F155">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" t="s">
+        <v>70</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D156">
+        <v>2030</v>
+      </c>
+      <c r="E156">
+        <v>0.05</v>
+      </c>
+      <c r="F156">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B157" t="s">
+        <v>70</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157">
+        <v>2035</v>
+      </c>
+      <c r="E157">
+        <v>0.05</v>
+      </c>
+      <c r="F157">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>46</v>
+      </c>
+      <c r="B158" t="s">
+        <v>70</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D158">
+        <v>2040</v>
+      </c>
+      <c r="E158">
+        <v>0.05</v>
+      </c>
+      <c r="F158">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>46</v>
+      </c>
+      <c r="B159" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159">
+        <v>2100</v>
+      </c>
+      <c r="E159">
+        <v>0.05</v>
+      </c>
+      <c r="F159">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D160">
+        <v>2021</v>
+      </c>
+      <c r="E160">
+        <v>0.05</v>
+      </c>
+      <c r="F160">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161">
+        <v>2022</v>
+      </c>
+      <c r="E161">
+        <v>0.05</v>
+      </c>
+      <c r="F161">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" t="s">
+        <v>70</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162">
+        <v>2027</v>
+      </c>
+      <c r="E162">
+        <v>0.05</v>
+      </c>
+      <c r="F162">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163">
+        <v>2030</v>
+      </c>
+      <c r="E163">
+        <v>0.05</v>
+      </c>
+      <c r="F163">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164">
+        <v>2035</v>
+      </c>
+      <c r="E164">
+        <v>0.05</v>
+      </c>
+      <c r="F164">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D165">
+        <v>2050</v>
+      </c>
+      <c r="E165">
+        <v>0.05</v>
+      </c>
+      <c r="F165">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166">
+        <v>2100</v>
+      </c>
+      <c r="E166">
+        <v>0.05</v>
+      </c>
+      <c r="F166">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>70</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D167">
+        <v>2035</v>
+      </c>
+      <c r="E167">
+        <v>0.05</v>
+      </c>
+      <c r="F167">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D168">
+        <v>2040</v>
+      </c>
+      <c r="E168">
+        <v>0.05</v>
+      </c>
+      <c r="F168">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>70</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D169">
+        <v>2045</v>
+      </c>
+      <c r="E169">
+        <v>0.05</v>
+      </c>
+      <c r="F169">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>70</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D170">
+        <v>2100</v>
+      </c>
+      <c r="E170">
+        <v>0.05</v>
+      </c>
+      <c r="F170">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>33</v>
+      </c>
+      <c r="B171" t="s">
+        <v>70</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D171">
+        <v>2022</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>33</v>
+      </c>
+      <c r="B172" t="s">
+        <v>70</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D172">
+        <v>2027</v>
+      </c>
+      <c r="E172">
+        <v>0.05</v>
+      </c>
+      <c r="F172">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>33</v>
+      </c>
+      <c r="B173" t="s">
+        <v>70</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D173">
+        <v>2035</v>
+      </c>
+      <c r="E173">
+        <v>0.05</v>
+      </c>
+      <c r="F173">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174" t="s">
+        <v>70</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D174">
+        <v>2040</v>
+      </c>
+      <c r="E174">
+        <v>0.05</v>
+      </c>
+      <c r="F174">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>33</v>
+      </c>
+      <c r="B175" t="s">
+        <v>70</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D175">
+        <v>2045</v>
+      </c>
+      <c r="E175">
+        <v>0.05</v>
+      </c>
+      <c r="F175">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>33</v>
+      </c>
+      <c r="B176" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D176">
+        <v>2100</v>
+      </c>
+      <c r="E176">
+        <v>0.05</v>
+      </c>
+      <c r="F176">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D177">
+        <v>2021</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" t="s">
+        <v>37</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D178">
+        <v>2030</v>
+      </c>
+      <c r="E178">
+        <v>0.01</v>
+      </c>
+      <c r="F178">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D179">
+        <v>2035</v>
+      </c>
+      <c r="E179">
+        <v>0.05</v>
+      </c>
+      <c r="F179">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" t="s">
+        <v>37</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D180">
+        <v>2040</v>
+      </c>
+      <c r="E180">
+        <v>0.1</v>
+      </c>
+      <c r="F180">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D181">
+        <v>2100</v>
+      </c>
+      <c r="E181">
+        <v>0.3</v>
+      </c>
+      <c r="F181">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182" t="s">
         <v>35</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C182" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D151">
+      <c r="D182">
+        <v>2021</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D183">
+        <v>2030</v>
+      </c>
+      <c r="E183">
+        <v>0.01</v>
+      </c>
+      <c r="F183">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D184">
+        <v>2035</v>
+      </c>
+      <c r="E184">
+        <v>0.05</v>
+      </c>
+      <c r="F184">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D185">
+        <v>2040</v>
+      </c>
+      <c r="E185">
+        <v>0.1</v>
+      </c>
+      <c r="F185">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D186">
         <v>2100</v>
       </c>
-      <c r="E151">
+      <c r="E186">
         <v>0.3</v>
       </c>
-      <c r="F151">
-        <v>0.02</v>
-      </c>
+      <c r="F186">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>33</v>
+      </c>
+      <c r="B187" t="s">
+        <v>37</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D187">
+        <v>2021</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D188">
+        <v>2030</v>
+      </c>
+      <c r="E188">
+        <v>0.01</v>
+      </c>
+      <c r="F188">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>33</v>
+      </c>
+      <c r="B189" t="s">
+        <v>37</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D189">
+        <v>2035</v>
+      </c>
+      <c r="E189">
+        <v>0.05</v>
+      </c>
+      <c r="F189">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" t="s">
+        <v>37</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D190">
+        <v>2040</v>
+      </c>
+      <c r="E190">
+        <v>0.1</v>
+      </c>
+      <c r="F190">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" t="s">
+        <v>37</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D191">
+        <v>2100</v>
+      </c>
+      <c r="E191">
+        <v>0.3</v>
+      </c>
+      <c r="F191">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192">
+        <v>2021</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D193">
+        <v>2030</v>
+      </c>
+      <c r="E193">
+        <v>0.01</v>
+      </c>
+      <c r="F193">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>33</v>
+      </c>
+      <c r="B194" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D194">
+        <v>2035</v>
+      </c>
+      <c r="E194">
+        <v>0.05</v>
+      </c>
+      <c r="F194">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>33</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D195">
+        <v>2040</v>
+      </c>
+      <c r="E195">
+        <v>0.1</v>
+      </c>
+      <c r="F195">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D196">
+        <v>2100</v>
+      </c>
+      <c r="E196">
+        <v>0.3</v>
+      </c>
+      <c r="F196">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D197">
+        <v>2021</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D198">
+        <v>2030</v>
+      </c>
+      <c r="E198">
+        <v>0.01</v>
+      </c>
+      <c r="F198">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D199">
+        <v>2035</v>
+      </c>
+      <c r="E199">
+        <v>0.05</v>
+      </c>
+      <c r="F199">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>37</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D200">
+        <v>2040</v>
+      </c>
+      <c r="E200">
+        <v>0.1</v>
+      </c>
+      <c r="F200">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>37</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D201">
+        <v>2100</v>
+      </c>
+      <c r="E201">
+        <v>0.3</v>
+      </c>
+      <c r="F201">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D202">
+        <v>2021</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s">
+        <v>35</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D203">
+        <v>2030</v>
+      </c>
+      <c r="E203">
+        <v>0.01</v>
+      </c>
+      <c r="F203">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D204">
+        <v>2035</v>
+      </c>
+      <c r="E204">
+        <v>0.05</v>
+      </c>
+      <c r="F204">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>35</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D205">
+        <v>2040</v>
+      </c>
+      <c r="E205">
+        <v>0.1</v>
+      </c>
+      <c r="F205">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>35</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D206">
+        <v>2100</v>
+      </c>
+      <c r="E206">
+        <v>0.3</v>
+      </c>
+      <c r="F206">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" t="s">
+        <v>37</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D207">
+        <v>2021</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>45</v>
+      </c>
+      <c r="B208" t="s">
+        <v>37</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D208">
+        <v>2030</v>
+      </c>
+      <c r="E208">
+        <v>0.01</v>
+      </c>
+      <c r="F208">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B209" t="s">
+        <v>37</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D209">
+        <v>2035</v>
+      </c>
+      <c r="E209">
+        <v>0.05</v>
+      </c>
+      <c r="F209">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210" t="s">
+        <v>37</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D210">
+        <v>2040</v>
+      </c>
+      <c r="E210">
+        <v>0.1</v>
+      </c>
+      <c r="F210">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211" t="s">
+        <v>37</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D211">
+        <v>2100</v>
+      </c>
+      <c r="E211">
+        <v>0.3</v>
+      </c>
+      <c r="F211">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D212">
+        <v>2021</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>45</v>
+      </c>
+      <c r="B213" t="s">
+        <v>35</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D213">
+        <v>2030</v>
+      </c>
+      <c r="E213">
+        <v>0.01</v>
+      </c>
+      <c r="F213">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>45</v>
+      </c>
+      <c r="B214" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D214">
+        <v>2035</v>
+      </c>
+      <c r="E214">
+        <v>0.05</v>
+      </c>
+      <c r="F214">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" t="s">
+        <v>35</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D215">
+        <v>2040</v>
+      </c>
+      <c r="E215">
+        <v>0.1</v>
+      </c>
+      <c r="F215">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D216">
+        <v>2100</v>
+      </c>
+      <c r="E216">
+        <v>0.3</v>
+      </c>
+      <c r="F216">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>37</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D217">
+        <v>2021</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>37</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D218">
+        <v>2030</v>
+      </c>
+      <c r="E218">
+        <v>0.01</v>
+      </c>
+      <c r="F218">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D219">
+        <v>2035</v>
+      </c>
+      <c r="E219">
+        <v>0.05</v>
+      </c>
+      <c r="F219">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" t="s">
+        <v>37</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D220">
+        <v>2040</v>
+      </c>
+      <c r="E220">
+        <v>0.1</v>
+      </c>
+      <c r="F220">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>37</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D221">
+        <v>2100</v>
+      </c>
+      <c r="E221">
+        <v>0.3</v>
+      </c>
+      <c r="F221">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>35</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D222">
+        <v>2021</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D223">
+        <v>2030</v>
+      </c>
+      <c r="E223">
+        <v>0.01</v>
+      </c>
+      <c r="F223">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D224">
+        <v>2035</v>
+      </c>
+      <c r="E224">
+        <v>0.05</v>
+      </c>
+      <c r="F224">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D225">
+        <v>2040</v>
+      </c>
+      <c r="E225">
+        <v>0.1</v>
+      </c>
+      <c r="F225">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D226">
+        <v>2100</v>
+      </c>
+      <c r="E226">
+        <v>0.3</v>
+      </c>
+      <c r="F226">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D227">
+        <v>2021</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" t="s">
+        <v>37</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D228">
+        <v>2030</v>
+      </c>
+      <c r="E228">
+        <v>0.01</v>
+      </c>
+      <c r="F228">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" t="s">
+        <v>37</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D229">
+        <v>2035</v>
+      </c>
+      <c r="E229">
+        <v>0.05</v>
+      </c>
+      <c r="F229">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" t="s">
+        <v>37</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D230">
+        <v>2040</v>
+      </c>
+      <c r="E230">
+        <v>0.1</v>
+      </c>
+      <c r="F230">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" t="s">
+        <v>37</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D231">
+        <v>2100</v>
+      </c>
+      <c r="E231">
+        <v>0.3</v>
+      </c>
+      <c r="F231">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D232">
+        <v>2021</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" t="s">
+        <v>35</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D233">
+        <v>2030</v>
+      </c>
+      <c r="E233">
+        <v>0.01</v>
+      </c>
+      <c r="F233">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" t="s">
+        <v>35</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D234">
+        <v>2035</v>
+      </c>
+      <c r="E234">
+        <v>0.05</v>
+      </c>
+      <c r="F234">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" t="s">
+        <v>35</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D235">
+        <v>2040</v>
+      </c>
+      <c r="E235">
+        <v>0.1</v>
+      </c>
+      <c r="F235">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" t="s">
+        <v>35</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D236">
+        <v>2100</v>
+      </c>
+      <c r="E236">
+        <v>0.3</v>
+      </c>
+      <c r="F236">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>46</v>
+      </c>
+      <c r="B237" t="s">
+        <v>63</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D237">
+        <v>2021</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>46</v>
+      </c>
+      <c r="B238" t="s">
+        <v>63</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238">
+        <v>2030</v>
+      </c>
+      <c r="E238">
+        <v>0.01</v>
+      </c>
+      <c r="F238">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>46</v>
+      </c>
+      <c r="B239" t="s">
+        <v>63</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D239">
+        <v>2035</v>
+      </c>
+      <c r="E239">
+        <v>0.05</v>
+      </c>
+      <c r="F239">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+      <c r="B240" t="s">
+        <v>63</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D240">
+        <v>2040</v>
+      </c>
+      <c r="E240">
+        <v>0.1</v>
+      </c>
+      <c r="F240">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" t="s">
+        <v>63</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241">
+        <v>2100</v>
+      </c>
+      <c r="E241">
+        <v>0.3</v>
+      </c>
+      <c r="F241">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" t="s">
+        <v>63</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D242">
+        <v>2021</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243" t="s">
+        <v>63</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D243">
+        <v>2030</v>
+      </c>
+      <c r="E243">
+        <v>0.01</v>
+      </c>
+      <c r="F243">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" t="s">
+        <v>63</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D244">
+        <v>2035</v>
+      </c>
+      <c r="E244">
+        <v>0.05</v>
+      </c>
+      <c r="F244">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>63</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D245">
+        <v>2040</v>
+      </c>
+      <c r="E245">
+        <v>0.1</v>
+      </c>
+      <c r="F245">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" t="s">
+        <v>63</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D246">
+        <v>2100</v>
+      </c>
+      <c r="E246">
+        <v>0.3</v>
+      </c>
+      <c r="F246">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>33</v>
+      </c>
+      <c r="B247" t="s">
+        <v>63</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D247">
+        <v>2021</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>33</v>
+      </c>
+      <c r="B248" t="s">
+        <v>63</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D248">
+        <v>2030</v>
+      </c>
+      <c r="E248">
+        <v>0.01</v>
+      </c>
+      <c r="F248">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" t="s">
+        <v>63</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249">
+        <v>2035</v>
+      </c>
+      <c r="E249">
+        <v>0.05</v>
+      </c>
+      <c r="F249">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>33</v>
+      </c>
+      <c r="B250" t="s">
+        <v>63</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D250">
+        <v>2040</v>
+      </c>
+      <c r="E250">
+        <v>0.1</v>
+      </c>
+      <c r="F250">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>33</v>
+      </c>
+      <c r="B251" t="s">
+        <v>63</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D251">
+        <v>2100</v>
+      </c>
+      <c r="E251">
+        <v>0.3</v>
+      </c>
+      <c r="F251">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>33</v>
+      </c>
+      <c r="B252" t="s">
+        <v>63</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D252">
+        <v>2021</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>33</v>
+      </c>
+      <c r="B253" t="s">
+        <v>63</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D253">
+        <v>2030</v>
+      </c>
+      <c r="E253">
+        <v>0.01</v>
+      </c>
+      <c r="F253">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>33</v>
+      </c>
+      <c r="B254" t="s">
+        <v>63</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D254">
+        <v>2035</v>
+      </c>
+      <c r="E254">
+        <v>0.05</v>
+      </c>
+      <c r="F254">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>33</v>
+      </c>
+      <c r="B255" t="s">
+        <v>63</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D255">
+        <v>2040</v>
+      </c>
+      <c r="E255">
+        <v>0.1</v>
+      </c>
+      <c r="F255">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>33</v>
+      </c>
+      <c r="B256" t="s">
+        <v>63</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D256">
+        <v>2100</v>
+      </c>
+      <c r="E256">
+        <v>0.3</v>
+      </c>
+      <c r="F256">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" t="s">
+        <v>63</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D257">
+        <v>2021</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" t="s">
+        <v>63</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258">
+        <v>2030</v>
+      </c>
+      <c r="E258">
+        <v>0.01</v>
+      </c>
+      <c r="F258">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>13</v>
+      </c>
+      <c r="B259" t="s">
+        <v>63</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D259">
+        <v>2035</v>
+      </c>
+      <c r="E259">
+        <v>0.05</v>
+      </c>
+      <c r="F259">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260" t="s">
+        <v>63</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D260">
+        <v>2040</v>
+      </c>
+      <c r="E260">
+        <v>0.1</v>
+      </c>
+      <c r="F260">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" t="s">
+        <v>63</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D261">
+        <v>2100</v>
+      </c>
+      <c r="E261">
+        <v>0.3</v>
+      </c>
+      <c r="F261">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" t="s">
+        <v>63</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D262">
+        <v>2021</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" t="s">
+        <v>63</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D263">
+        <v>2030</v>
+      </c>
+      <c r="E263">
+        <v>0.01</v>
+      </c>
+      <c r="F263">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" t="s">
+        <v>63</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D264">
+        <v>2035</v>
+      </c>
+      <c r="E264">
+        <v>0.05</v>
+      </c>
+      <c r="F264">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" t="s">
+        <v>63</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D265">
+        <v>2040</v>
+      </c>
+      <c r="E265">
+        <v>0.1</v>
+      </c>
+      <c r="F265">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" t="s">
+        <v>63</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D266">
+        <v>2100</v>
+      </c>
+      <c r="E266">
+        <v>0.3</v>
+      </c>
+      <c r="F266">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>45</v>
+      </c>
+      <c r="B267" t="s">
+        <v>63</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D267">
+        <v>2021</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>45</v>
+      </c>
+      <c r="B268" t="s">
+        <v>63</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D268">
+        <v>2030</v>
+      </c>
+      <c r="E268">
+        <v>0.01</v>
+      </c>
+      <c r="F268">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>45</v>
+      </c>
+      <c r="B269" t="s">
+        <v>63</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D269">
+        <v>2035</v>
+      </c>
+      <c r="E269">
+        <v>0.05</v>
+      </c>
+      <c r="F269">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>45</v>
+      </c>
+      <c r="B270" t="s">
+        <v>63</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270">
+        <v>2040</v>
+      </c>
+      <c r="E270">
+        <v>0.1</v>
+      </c>
+      <c r="F270">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>45</v>
+      </c>
+      <c r="B271" t="s">
+        <v>63</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D271">
+        <v>2100</v>
+      </c>
+      <c r="E271">
+        <v>0.3</v>
+      </c>
+      <c r="F271">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>45</v>
+      </c>
+      <c r="B272" t="s">
+        <v>63</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D272">
+        <v>2021</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" t="s">
+        <v>63</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D273">
+        <v>2030</v>
+      </c>
+      <c r="E273">
+        <v>0.01</v>
+      </c>
+      <c r="F273">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>45</v>
+      </c>
+      <c r="B274" t="s">
+        <v>63</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D274">
+        <v>2035</v>
+      </c>
+      <c r="E274">
+        <v>0.05</v>
+      </c>
+      <c r="F274">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275" t="s">
+        <v>63</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D275">
+        <v>2040</v>
+      </c>
+      <c r="E275">
+        <v>0.1</v>
+      </c>
+      <c r="F275">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>45</v>
+      </c>
+      <c r="B276" t="s">
+        <v>63</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D276">
+        <v>2100</v>
+      </c>
+      <c r="E276">
+        <v>0.3</v>
+      </c>
+      <c r="F276">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>63</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D277">
+        <v>2021</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D278">
+        <v>2030</v>
+      </c>
+      <c r="E278">
+        <v>0.01</v>
+      </c>
+      <c r="F278">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>63</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D279">
+        <v>2035</v>
+      </c>
+      <c r="E279">
+        <v>0.05</v>
+      </c>
+      <c r="F279">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D280">
+        <v>2040</v>
+      </c>
+      <c r="E280">
+        <v>0.1</v>
+      </c>
+      <c r="F280">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" t="s">
+        <v>63</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D281">
+        <v>2100</v>
+      </c>
+      <c r="E281">
+        <v>0.3</v>
+      </c>
+      <c r="F281">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>63</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D282">
+        <v>2021</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" t="s">
+        <v>63</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D283">
+        <v>2030</v>
+      </c>
+      <c r="E283">
+        <v>0.01</v>
+      </c>
+      <c r="F283">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>63</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D284">
+        <v>2035</v>
+      </c>
+      <c r="E284">
+        <v>0.05</v>
+      </c>
+      <c r="F284">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" t="s">
+        <v>63</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D285">
+        <v>2040</v>
+      </c>
+      <c r="E285">
+        <v>0.1</v>
+      </c>
+      <c r="F285">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" t="s">
+        <v>63</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D286">
+        <v>2100</v>
+      </c>
+      <c r="E286">
+        <v>0.3</v>
+      </c>
+      <c r="F286">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>30</v>
+      </c>
+      <c r="B287" t="s">
+        <v>63</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D287">
+        <v>2021</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>30</v>
+      </c>
+      <c r="B288" t="s">
+        <v>63</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D288">
+        <v>2030</v>
+      </c>
+      <c r="E288">
+        <v>0.01</v>
+      </c>
+      <c r="F288">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>30</v>
+      </c>
+      <c r="B289" t="s">
+        <v>63</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D289">
+        <v>2035</v>
+      </c>
+      <c r="E289">
+        <v>0.05</v>
+      </c>
+      <c r="F289">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>30</v>
+      </c>
+      <c r="B290" t="s">
+        <v>63</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D290">
+        <v>2040</v>
+      </c>
+      <c r="E290">
+        <v>0.1</v>
+      </c>
+      <c r="F290">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" t="s">
+        <v>63</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D291">
+        <v>2100</v>
+      </c>
+      <c r="E291">
+        <v>0.3</v>
+      </c>
+      <c r="F291">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" t="s">
+        <v>63</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D292">
+        <v>2021</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" t="s">
+        <v>63</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D293">
+        <v>2030</v>
+      </c>
+      <c r="E293">
+        <v>0.01</v>
+      </c>
+      <c r="F293">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>30</v>
+      </c>
+      <c r="B294" t="s">
+        <v>63</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D294">
+        <v>2035</v>
+      </c>
+      <c r="E294">
+        <v>0.05</v>
+      </c>
+      <c r="F294">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>30</v>
+      </c>
+      <c r="B295" t="s">
+        <v>63</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D295">
+        <v>2040</v>
+      </c>
+      <c r="E295">
+        <v>0.1</v>
+      </c>
+      <c r="F295">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" t="s">
+        <v>63</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D296">
+        <v>2100</v>
+      </c>
+      <c r="E296">
+        <v>0.3</v>
+      </c>
+      <c r="F296">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>46</v>
+      </c>
+      <c r="B297" t="s">
+        <v>40</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D297">
+        <v>2021</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>46</v>
+      </c>
+      <c r="B298" t="s">
+        <v>40</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D298">
+        <v>2030</v>
+      </c>
+      <c r="E298">
+        <v>0.01</v>
+      </c>
+      <c r="F298">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>46</v>
+      </c>
+      <c r="B299" t="s">
+        <v>40</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D299">
+        <v>2035</v>
+      </c>
+      <c r="E299">
+        <v>0.05</v>
+      </c>
+      <c r="F299">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>46</v>
+      </c>
+      <c r="B300" t="s">
+        <v>40</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D300">
+        <v>2040</v>
+      </c>
+      <c r="E300">
+        <v>0.1</v>
+      </c>
+      <c r="F300">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>46</v>
+      </c>
+      <c r="B301" t="s">
+        <v>40</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D301">
+        <v>2100</v>
+      </c>
+      <c r="E301">
+        <v>0.3</v>
+      </c>
+      <c r="F301">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>46</v>
+      </c>
+      <c r="B302" t="s">
+        <v>40</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D302">
+        <v>2021</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>46</v>
+      </c>
+      <c r="B303" t="s">
+        <v>40</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D303">
+        <v>2030</v>
+      </c>
+      <c r="E303">
+        <v>0.01</v>
+      </c>
+      <c r="F303">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>46</v>
+      </c>
+      <c r="B304" t="s">
+        <v>40</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D304">
+        <v>2035</v>
+      </c>
+      <c r="E304">
+        <v>0.05</v>
+      </c>
+      <c r="F304">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>46</v>
+      </c>
+      <c r="B305" t="s">
+        <v>40</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D305">
+        <v>2040</v>
+      </c>
+      <c r="E305">
+        <v>0.1</v>
+      </c>
+      <c r="F305">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>46</v>
+      </c>
+      <c r="B306" t="s">
+        <v>40</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D306">
+        <v>2100</v>
+      </c>
+      <c r="E306">
+        <v>0.3</v>
+      </c>
+      <c r="F306">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>33</v>
+      </c>
+      <c r="B307" t="s">
+        <v>40</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D307">
+        <v>2021</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>33</v>
+      </c>
+      <c r="B308" t="s">
+        <v>40</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D308">
+        <v>2030</v>
+      </c>
+      <c r="E308">
+        <v>0.01</v>
+      </c>
+      <c r="F308">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>33</v>
+      </c>
+      <c r="B309" t="s">
+        <v>40</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D309">
+        <v>2035</v>
+      </c>
+      <c r="E309">
+        <v>0.05</v>
+      </c>
+      <c r="F309">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>33</v>
+      </c>
+      <c r="B310" t="s">
+        <v>40</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D310">
+        <v>2040</v>
+      </c>
+      <c r="E310">
+        <v>0.1</v>
+      </c>
+      <c r="F310">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>33</v>
+      </c>
+      <c r="B311" t="s">
+        <v>40</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D311">
+        <v>2100</v>
+      </c>
+      <c r="E311">
+        <v>0.3</v>
+      </c>
+      <c r="F311">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>33</v>
+      </c>
+      <c r="B312" t="s">
+        <v>40</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D312">
+        <v>2021</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>33</v>
+      </c>
+      <c r="B313" t="s">
+        <v>40</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D313">
+        <v>2030</v>
+      </c>
+      <c r="E313">
+        <v>0.01</v>
+      </c>
+      <c r="F313">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>33</v>
+      </c>
+      <c r="B314" t="s">
+        <v>40</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D314">
+        <v>2035</v>
+      </c>
+      <c r="E314">
+        <v>0.05</v>
+      </c>
+      <c r="F314">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>33</v>
+      </c>
+      <c r="B315" t="s">
+        <v>40</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D315">
+        <v>2040</v>
+      </c>
+      <c r="E315">
+        <v>0.1</v>
+      </c>
+      <c r="F315">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>33</v>
+      </c>
+      <c r="B316" t="s">
+        <v>40</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D316">
+        <v>2100</v>
+      </c>
+      <c r="E316">
+        <v>0.3</v>
+      </c>
+      <c r="F316">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317" t="s">
+        <v>40</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D317">
+        <v>2021</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" t="s">
+        <v>40</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D318">
+        <v>2030</v>
+      </c>
+      <c r="E318">
+        <v>0.01</v>
+      </c>
+      <c r="F318">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" t="s">
+        <v>40</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D319">
+        <v>2035</v>
+      </c>
+      <c r="E319">
+        <v>0.05</v>
+      </c>
+      <c r="F319">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>13</v>
+      </c>
+      <c r="B320" t="s">
+        <v>40</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D320">
+        <v>2040</v>
+      </c>
+      <c r="E320">
+        <v>0.1</v>
+      </c>
+      <c r="F320">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>13</v>
+      </c>
+      <c r="B321" t="s">
+        <v>40</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D321">
+        <v>2100</v>
+      </c>
+      <c r="E321">
+        <v>0.3</v>
+      </c>
+      <c r="F321">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322" t="s">
+        <v>40</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322">
+        <v>2021</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323" t="s">
+        <v>40</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D323">
+        <v>2030</v>
+      </c>
+      <c r="E323">
+        <v>0.01</v>
+      </c>
+      <c r="F323">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324" t="s">
+        <v>40</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D324">
+        <v>2035</v>
+      </c>
+      <c r="E324">
+        <v>0.05</v>
+      </c>
+      <c r="F324">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325" t="s">
+        <v>40</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D325">
+        <v>2040</v>
+      </c>
+      <c r="E325">
+        <v>0.1</v>
+      </c>
+      <c r="F325">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326" t="s">
+        <v>40</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D326">
+        <v>2100</v>
+      </c>
+      <c r="E326">
+        <v>0.3</v>
+      </c>
+      <c r="F326">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>45</v>
+      </c>
+      <c r="B327" t="s">
+        <v>40</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D327">
+        <v>2021</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>45</v>
+      </c>
+      <c r="B328" t="s">
+        <v>40</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D328">
+        <v>2030</v>
+      </c>
+      <c r="E328">
+        <v>0.01</v>
+      </c>
+      <c r="F328">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>45</v>
+      </c>
+      <c r="B329" t="s">
+        <v>40</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D329">
+        <v>2035</v>
+      </c>
+      <c r="E329">
+        <v>0.05</v>
+      </c>
+      <c r="F329">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>45</v>
+      </c>
+      <c r="B330" t="s">
+        <v>40</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D330">
+        <v>2040</v>
+      </c>
+      <c r="E330">
+        <v>0.1</v>
+      </c>
+      <c r="F330">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>45</v>
+      </c>
+      <c r="B331" t="s">
+        <v>40</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D331">
+        <v>2100</v>
+      </c>
+      <c r="E331">
+        <v>0.3</v>
+      </c>
+      <c r="F331">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>45</v>
+      </c>
+      <c r="B332" t="s">
+        <v>40</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D332">
+        <v>2021</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>45</v>
+      </c>
+      <c r="B333" t="s">
+        <v>40</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D333">
+        <v>2030</v>
+      </c>
+      <c r="E333">
+        <v>0.01</v>
+      </c>
+      <c r="F333">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>45</v>
+      </c>
+      <c r="B334" t="s">
+        <v>40</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D334">
+        <v>2035</v>
+      </c>
+      <c r="E334">
+        <v>0.05</v>
+      </c>
+      <c r="F334">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335" t="s">
+        <v>40</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D335">
+        <v>2040</v>
+      </c>
+      <c r="E335">
+        <v>0.1</v>
+      </c>
+      <c r="F335">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>45</v>
+      </c>
+      <c r="B336" t="s">
+        <v>40</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D336">
+        <v>2100</v>
+      </c>
+      <c r="E336">
+        <v>0.3</v>
+      </c>
+      <c r="F336">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337" t="s">
+        <v>40</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D337">
+        <v>2021</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>40</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D338">
+        <v>2030</v>
+      </c>
+      <c r="E338">
+        <v>0.01</v>
+      </c>
+      <c r="F338">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>40</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D339">
+        <v>2035</v>
+      </c>
+      <c r="E339">
+        <v>0.05</v>
+      </c>
+      <c r="F339">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>40</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D340">
+        <v>2040</v>
+      </c>
+      <c r="E340">
+        <v>0.1</v>
+      </c>
+      <c r="F340">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>40</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D341">
+        <v>2100</v>
+      </c>
+      <c r="E341">
+        <v>0.3</v>
+      </c>
+      <c r="F341">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" t="s">
+        <v>40</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D342">
+        <v>2021</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>40</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D343">
+        <v>2030</v>
+      </c>
+      <c r="E343">
+        <v>0.01</v>
+      </c>
+      <c r="F343">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" t="s">
+        <v>40</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D344">
+        <v>2035</v>
+      </c>
+      <c r="E344">
+        <v>0.05</v>
+      </c>
+      <c r="F344">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>40</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D345">
+        <v>2040</v>
+      </c>
+      <c r="E345">
+        <v>0.1</v>
+      </c>
+      <c r="F345">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" t="s">
+        <v>40</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D346">
+        <v>2100</v>
+      </c>
+      <c r="E346">
+        <v>0.3</v>
+      </c>
+      <c r="F346">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" t="s">
+        <v>40</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D347">
+        <v>2021</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>30</v>
+      </c>
+      <c r="B348" t="s">
+        <v>40</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D348">
+        <v>2030</v>
+      </c>
+      <c r="E348">
+        <v>0.01</v>
+      </c>
+      <c r="F348">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" t="s">
+        <v>40</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D349">
+        <v>2035</v>
+      </c>
+      <c r="E349">
+        <v>0.05</v>
+      </c>
+      <c r="F349">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>30</v>
+      </c>
+      <c r="B350" t="s">
+        <v>40</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D350">
+        <v>2040</v>
+      </c>
+      <c r="E350">
+        <v>0.1</v>
+      </c>
+      <c r="F350">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>30</v>
+      </c>
+      <c r="B351" t="s">
+        <v>40</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D351">
+        <v>2100</v>
+      </c>
+      <c r="E351">
+        <v>0.3</v>
+      </c>
+      <c r="F351">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>30</v>
+      </c>
+      <c r="B352" t="s">
+        <v>40</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D352">
+        <v>2021</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>30</v>
+      </c>
+      <c r="B353" t="s">
+        <v>40</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D353">
+        <v>2030</v>
+      </c>
+      <c r="E353">
+        <v>0.01</v>
+      </c>
+      <c r="F353">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>30</v>
+      </c>
+      <c r="B354" t="s">
+        <v>40</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D354">
+        <v>2035</v>
+      </c>
+      <c r="E354">
+        <v>0.05</v>
+      </c>
+      <c r="F354">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>30</v>
+      </c>
+      <c r="B355" t="s">
+        <v>40</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D355">
+        <v>2040</v>
+      </c>
+      <c r="E355">
+        <v>0.1</v>
+      </c>
+      <c r="F355">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>30</v>
+      </c>
+      <c r="B356" t="s">
+        <v>40</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D356">
+        <v>2100</v>
+      </c>
+      <c r="E356">
+        <v>0.3</v>
+      </c>
+      <c r="F356">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B359" s="6"/>
+      <c r="C359" s="6"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B366" s="6"/>
+      <c r="C366" s="6"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B367" s="6"/>
+      <c r="C367" s="6"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B369" s="6"/>
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B370" s="6"/>
+      <c r="C370" s="6"/>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B371" s="6"/>
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B372" s="6"/>
+      <c r="C372" s="6"/>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B375" s="6"/>
+      <c r="C375" s="6"/>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B376" s="6"/>
+      <c r="C376" s="6"/>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B377" s="6"/>
+      <c r="C377" s="6"/>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B378" s="6"/>
+      <c r="C378" s="6"/>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B379" s="6"/>
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B380" s="6"/>
+      <c r="C380" s="6"/>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B384" s="6"/>
+      <c r="C384" s="6"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B385" s="6"/>
+      <c r="C385" s="6"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B386" s="6"/>
+      <c r="C386" s="6"/>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B387" s="6"/>
+      <c r="C387" s="6"/>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B390" s="6"/>
+      <c r="C390" s="6"/>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B391" s="6"/>
+      <c r="C391" s="6"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B392" s="6"/>
+      <c r="C392" s="6"/>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B394" s="6"/>
+      <c r="C394" s="6"/>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B395" s="6"/>
+      <c r="C395" s="6"/>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B397" s="6"/>
+      <c r="C397" s="6"/>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B398" s="6"/>
+      <c r="C398" s="6"/>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B399" s="6"/>
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B401" s="6"/>
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B402" s="6"/>
+      <c r="C402" s="6"/>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B403" s="6"/>
+      <c r="C403" s="6"/>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B404" s="6"/>
+      <c r="C404" s="6"/>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B405" s="6"/>
+      <c r="C405" s="6"/>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B406" s="6"/>
+      <c r="C406" s="6"/>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B407" s="6"/>
+      <c r="C407" s="6"/>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B408" s="6"/>
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B409" s="6"/>
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B410" s="6"/>
+      <c r="C410" s="6"/>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B411" s="6"/>
+      <c r="C411" s="6"/>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B412" s="6"/>
+      <c r="C412" s="6"/>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B413" s="6"/>
+      <c r="C413" s="6"/>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B414" s="6"/>
+      <c r="C414" s="6"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B415" s="6"/>
+      <c r="C415" s="6"/>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B416" s="6"/>
+      <c r="C416" s="6"/>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B417" s="6"/>
+      <c r="C417" s="6"/>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B418" s="6"/>
+      <c r="C418" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F151" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F141">
-      <sortCondition ref="A1:A141"/>
+  <autoFilter ref="A1:F236" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F186">
+      <sortCondition ref="C1:C186"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:C1">
@@ -4446,7 +8801,7 @@
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2"/>
@@ -4482,7 +8837,7 @@
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="2"/>
@@ -4518,7 +8873,7 @@
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="2"/>
@@ -4554,7 +8909,7 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="2"/>
@@ -4590,7 +8945,7 @@
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="2"/>
@@ -4626,7 +8981,7 @@
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="2"/>
@@ -4662,7 +9017,7 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="2"/>
@@ -4698,7 +9053,7 @@
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="2"/>
@@ -4734,7 +9089,7 @@
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="2"/>
@@ -4770,7 +9125,7 @@
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="2"/>
@@ -4806,7 +9161,7 @@
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="2"/>
@@ -4842,7 +9197,7 @@
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="2"/>
@@ -4878,7 +9233,7 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="2"/>
@@ -4914,7 +9269,7 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="2"/>
@@ -4947,20 +9302,20 @@
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16">
         <v>2021</v>
       </c>

--- a/input_data/fuel_mixing_assumptions.xlsx
+++ b/input_data/fuel_mixing_assumptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1CF2CE-2C17-4C59-B7FF-39DDAF058AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB79C6F5-0341-4868-9F17-E613B226A10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="demand_side_constant" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$356</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$354</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="72">
   <si>
     <t>Region</t>
   </si>
@@ -1150,9 +1150,9 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1338,18 +1338,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F418"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:F66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1388,8 +1389,9 @@
       <c r="F2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1408,8 +1410,9 @@
       <c r="F3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1428,8 +1431,9 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1448,8 +1452,9 @@
       <c r="F5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1468,8 +1473,9 @@
       <c r="F6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1488,8 +1494,9 @@
       <c r="F7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>42</v>
       </c>
       <c r="D8">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -1508,8 +1515,9 @@
       <c r="F8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>43</v>
       </c>
       <c r="D9">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -1528,8 +1536,9 @@
       <c r="F9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1540,16 +1549,17 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="E10">
         <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1560,16 +1570,17 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1580,16 +1591,17 @@
         <v>42</v>
       </c>
       <c r="D12">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1600,16 +1612,17 @@
         <v>43</v>
       </c>
       <c r="D13">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1620,16 +1633,17 @@
         <v>42</v>
       </c>
       <c r="D14">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E14">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1640,56 +1654,59 @@
         <v>43</v>
       </c>
       <c r="D15">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
+      <c r="B16" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>2022</v>
+        <v>2100</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1700,16 +1717,16 @@
         <v>44</v>
       </c>
       <c r="D18">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1720,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1757,7 @@
         <v>44</v>
       </c>
       <c r="D20">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="E20">
         <v>0.05</v>
@@ -1749,7 +1766,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1760,16 +1777,16 @@
         <v>44</v>
       </c>
       <c r="D21">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="E21">
         <v>0.05</v>
       </c>
       <c r="F21">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1780,127 +1797,127 @@
         <v>44</v>
       </c>
       <c r="D22">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E22">
         <v>0.05</v>
       </c>
       <c r="F22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D23">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D24">
-        <v>2022</v>
+        <v>2050</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D25">
-        <v>2027</v>
+        <v>2100</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="F25">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>38</v>
+      <c r="B26" t="s">
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D26">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
+      <c r="B27" t="s">
+        <v>70</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D27">
-        <v>2040</v>
+        <v>2022</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>38</v>
+      <c r="B28" t="s">
+        <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D28">
-        <v>2045</v>
+        <v>2027</v>
       </c>
       <c r="E28">
         <v>0.05</v>
@@ -1909,27 +1926,27 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>38</v>
+      <c r="B29" t="s">
+        <v>70</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>2100</v>
+        <v>2037</v>
       </c>
       <c r="E29">
         <v>0.05</v>
       </c>
       <c r="F29">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1940,16 +1957,16 @@
         <v>44</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1960,16 +1977,16 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>2022</v>
+        <v>2045</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1980,16 +1997,16 @@
         <v>44</v>
       </c>
       <c r="D32">
-        <v>2027</v>
+        <v>2050</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2000,67 +2017,67 @@
         <v>44</v>
       </c>
       <c r="D33">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="F33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>70</v>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>70</v>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D35">
-        <v>2045</v>
+        <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>70</v>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D36">
-        <v>2100</v>
+        <v>2027</v>
       </c>
       <c r="E36">
         <v>0.05</v>
@@ -2069,118 +2086,118 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>2021</v>
+        <v>2037</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B38" t="s">
-        <v>37</v>
+      <c r="B38" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
-        <v>37</v>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D39">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B40" t="s">
-        <v>37</v>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>37</v>
+      <c r="B41" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D41">
         <v>2100</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D42">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2189,18 +2206,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D43">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2209,18 +2226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D44">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2229,18 +2246,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D45">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2249,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2260,7 +2277,7 @@
         <v>69</v>
       </c>
       <c r="D46">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2269,18 +2286,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2289,67 +2306,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2360,16 +2377,16 @@
         <v>71</v>
       </c>
       <c r="D51">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E51">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2380,16 +2397,16 @@
         <v>71</v>
       </c>
       <c r="D52">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2409,7 +2426,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2420,16 +2437,16 @@
         <v>71</v>
       </c>
       <c r="D54">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="E54">
         <v>0.1</v>
       </c>
       <c r="F54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2440,16 +2457,16 @@
         <v>71</v>
       </c>
       <c r="D55">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F55">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2460,36 +2477,36 @@
         <v>71</v>
       </c>
       <c r="D56">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E56">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F56">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D57">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2500,16 +2517,16 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E58">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>71</v>
       </c>
       <c r="D59">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E59">
         <v>0.1</v>
@@ -2529,7 +2546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2540,7 +2557,7 @@
         <v>71</v>
       </c>
       <c r="D60">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E60">
         <v>0.1</v>
@@ -2549,7 +2566,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2560,16 +2577,16 @@
         <v>71</v>
       </c>
       <c r="D61">
-        <v>2100</v>
+        <v>2037</v>
       </c>
       <c r="E61">
         <v>0.1</v>
       </c>
       <c r="F61">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2580,16 +2597,16 @@
         <v>71</v>
       </c>
       <c r="D62">
-        <v>2021</v>
+        <v>2050</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -2600,16 +2617,16 @@
         <v>71</v>
       </c>
       <c r="D63">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="E63">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F63">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2620,56 +2637,56 @@
         <v>71</v>
       </c>
       <c r="D64">
+        <v>2100</v>
+      </c>
+      <c r="E64">
+        <v>0.34</v>
+      </c>
+      <c r="F64">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66">
         <v>2035</v>
       </c>
-      <c r="E64">
-        <v>0.1</v>
-      </c>
-      <c r="F64">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65">
-        <v>2040</v>
-      </c>
-      <c r="E65">
-        <v>0.1</v>
-      </c>
-      <c r="F65">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66">
-        <v>2100</v>
-      </c>
       <c r="E66">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2680,16 +2697,16 @@
         <v>42</v>
       </c>
       <c r="D67">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -2700,7 +2717,7 @@
         <v>42</v>
       </c>
       <c r="D68">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E68">
         <v>0.05</v>
@@ -2709,7 +2726,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -2720,7 +2737,7 @@
         <v>42</v>
       </c>
       <c r="D69">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E69">
         <v>0.05</v>
@@ -2729,38 +2746,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D70">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="E70">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D71">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E71">
         <v>0.05</v>
@@ -2769,7 +2786,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2780,16 +2797,16 @@
         <v>43</v>
       </c>
       <c r="D72">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>43</v>
       </c>
       <c r="D73">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E73">
         <v>0.05</v>
@@ -2809,7 +2826,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2820,7 +2837,7 @@
         <v>43</v>
       </c>
       <c r="D74">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E74">
         <v>0.05</v>
@@ -2829,38 +2846,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>13</v>
       </c>
-      <c r="B75" t="s">
-        <v>35</v>
+      <c r="B75" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="E75">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>13</v>
       </c>
-      <c r="B76" t="s">
-        <v>35</v>
+      <c r="B76" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D76">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E76">
         <v>0.05</v>
@@ -2869,7 +2886,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2880,16 +2897,16 @@
         <v>44</v>
       </c>
       <c r="D77">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2900,7 +2917,7 @@
         <v>44</v>
       </c>
       <c r="D78">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E78">
         <v>0.05</v>
@@ -2909,7 +2926,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -2920,7 +2937,7 @@
         <v>44</v>
       </c>
       <c r="D79">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E79">
         <v>0.05</v>
@@ -2929,38 +2946,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D80">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="E80">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>13</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D81">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E81">
         <v>0.05</v>
@@ -2969,7 +2986,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -2980,16 +2997,16 @@
         <v>44</v>
       </c>
       <c r="D82">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>44</v>
       </c>
       <c r="D83">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E83">
         <v>0.05</v>
@@ -3009,7 +3026,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3020,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="D84">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E84">
         <v>0.05</v>
@@ -3029,38 +3046,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>38</v>
+      <c r="B85" t="s">
+        <v>70</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D85">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="E85">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>38</v>
+      <c r="B86" t="s">
+        <v>70</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D86">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E86">
         <v>0.05</v>
@@ -3069,7 +3086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -3080,16 +3097,16 @@
         <v>44</v>
       </c>
       <c r="D87">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -3100,7 +3117,7 @@
         <v>44</v>
       </c>
       <c r="D88">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E88">
         <v>0.05</v>
@@ -3109,7 +3126,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -3120,7 +3137,7 @@
         <v>44</v>
       </c>
       <c r="D89">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E89">
         <v>0.05</v>
@@ -3129,47 +3146,47 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D90">
-        <v>2045</v>
+        <v>2021</v>
       </c>
       <c r="E90">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D91">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E91">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3197,7 @@
         <v>69</v>
       </c>
       <c r="D92">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3189,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3217,7 @@
         <v>69</v>
       </c>
       <c r="D93">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3209,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3220,7 +3237,7 @@
         <v>69</v>
       </c>
       <c r="D94">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3229,18 +3246,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D95">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3249,18 +3266,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D96">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3269,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3280,7 +3297,7 @@
         <v>69</v>
       </c>
       <c r="D97">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3289,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3300,7 +3317,7 @@
         <v>69</v>
       </c>
       <c r="D98">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3309,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -3320,7 +3337,7 @@
         <v>69</v>
       </c>
       <c r="D99">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3329,18 +3346,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D100">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3349,27 +3366,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D101">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3380,16 +3397,16 @@
         <v>71</v>
       </c>
       <c r="D102">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3400,16 +3417,16 @@
         <v>71</v>
       </c>
       <c r="D103">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E103">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F103">
         <v>0.02</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3420,16 +3437,16 @@
         <v>71</v>
       </c>
       <c r="D104">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E104">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F104">
         <v>0.02</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3440,16 +3457,16 @@
         <v>71</v>
       </c>
       <c r="D105">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E105">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -3460,16 +3477,16 @@
         <v>71</v>
       </c>
       <c r="D106">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E106">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F106">
         <v>0.02</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -3480,16 +3497,16 @@
         <v>71</v>
       </c>
       <c r="D107">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -3500,16 +3517,16 @@
         <v>71</v>
       </c>
       <c r="D108">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E108">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F108">
         <v>0.02</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -3520,56 +3537,56 @@
         <v>71</v>
       </c>
       <c r="D109">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E109">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F109">
         <v>0.02</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D110">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E110">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D111">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E111">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F111">
         <v>0.02</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -3580,16 +3597,16 @@
         <v>71</v>
       </c>
       <c r="D112">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -3600,16 +3617,16 @@
         <v>71</v>
       </c>
       <c r="D113">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E113">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F113">
         <v>0.02</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -3620,16 +3637,16 @@
         <v>71</v>
       </c>
       <c r="D114">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E114">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F114">
         <v>0.02</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -3640,16 +3657,16 @@
         <v>71</v>
       </c>
       <c r="D115">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E115">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3660,16 +3677,16 @@
         <v>71</v>
       </c>
       <c r="D116">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E116">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F116">
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -3680,16 +3697,16 @@
         <v>71</v>
       </c>
       <c r="D117">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3700,16 +3717,16 @@
         <v>71</v>
       </c>
       <c r="D118">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E118">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F118">
         <v>0.02</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -3720,56 +3737,56 @@
         <v>71</v>
       </c>
       <c r="D119">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E119">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F119">
         <v>0.02</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D120">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E120">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D121">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E121">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F121">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>45</v>
       </c>
@@ -3780,16 +3797,16 @@
         <v>42</v>
       </c>
       <c r="D122">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -3800,7 +3817,7 @@
         <v>42</v>
       </c>
       <c r="D123">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E123">
         <v>0.05</v>
@@ -3809,7 +3826,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -3820,7 +3837,7 @@
         <v>42</v>
       </c>
       <c r="D124">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E124">
         <v>0.05</v>
@@ -3829,7 +3846,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -3840,7 +3857,7 @@
         <v>42</v>
       </c>
       <c r="D125">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E125">
         <v>0.05</v>
@@ -3849,7 +3866,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -3860,7 +3877,7 @@
         <v>42</v>
       </c>
       <c r="D126">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E126">
         <v>0.05</v>
@@ -3869,7 +3886,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>42</v>
       </c>
       <c r="D127">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E127">
         <v>0.05</v>
@@ -3889,38 +3906,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D128">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E128">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D129">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E129">
         <v>0.05</v>
@@ -3929,7 +3946,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -3940,16 +3957,16 @@
         <v>43</v>
       </c>
       <c r="D130">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -3960,7 +3977,7 @@
         <v>43</v>
       </c>
       <c r="D131">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E131">
         <v>0.05</v>
@@ -3969,7 +3986,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>43</v>
       </c>
       <c r="D132">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E132">
         <v>0.05</v>
@@ -3989,7 +4006,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -4000,7 +4017,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E133">
         <v>0.05</v>
@@ -4009,7 +4026,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -4020,7 +4037,7 @@
         <v>43</v>
       </c>
       <c r="D134">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E134">
         <v>0.05</v>
@@ -4029,7 +4046,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>43</v>
       </c>
       <c r="D135">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E135">
         <v>0.05</v>
@@ -4049,38 +4066,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>45</v>
       </c>
-      <c r="B136" t="s">
-        <v>35</v>
+      <c r="B136" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D136">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E136">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>45</v>
       </c>
-      <c r="B137" t="s">
-        <v>35</v>
+      <c r="B137" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D137">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E137">
         <v>0.05</v>
@@ -4089,7 +4106,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -4100,16 +4117,16 @@
         <v>44</v>
       </c>
       <c r="D138">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -4120,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="D139">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E139">
         <v>0.05</v>
@@ -4129,7 +4146,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -4140,7 +4157,7 @@
         <v>44</v>
       </c>
       <c r="D140">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E140">
         <v>0.05</v>
@@ -4149,7 +4166,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -4160,7 +4177,7 @@
         <v>44</v>
       </c>
       <c r="D141">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E141">
         <v>0.05</v>
@@ -4169,7 +4186,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -4180,7 +4197,7 @@
         <v>44</v>
       </c>
       <c r="D142">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E142">
         <v>0.05</v>
@@ -4189,7 +4206,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -4200,7 +4217,7 @@
         <v>44</v>
       </c>
       <c r="D143">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E143">
         <v>0.05</v>
@@ -4209,38 +4226,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>45</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D144">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E144">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>45</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D145">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E145">
         <v>0.05</v>
@@ -4249,7 +4266,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -4260,16 +4277,16 @@
         <v>44</v>
       </c>
       <c r="D146">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -4280,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="D147">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E147">
         <v>0.05</v>
@@ -4289,7 +4306,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -4300,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="D148">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E148">
         <v>0.05</v>
@@ -4309,7 +4326,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -4320,7 +4337,7 @@
         <v>44</v>
       </c>
       <c r="D149">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E149">
         <v>0.05</v>
@@ -4329,7 +4346,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -4340,7 +4357,7 @@
         <v>44</v>
       </c>
       <c r="D150">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E150">
         <v>0.05</v>
@@ -4349,7 +4366,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -4360,7 +4377,7 @@
         <v>44</v>
       </c>
       <c r="D151">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E151">
         <v>0.05</v>
@@ -4369,38 +4386,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>45</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>38</v>
+      <c r="B152" t="s">
+        <v>70</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D152">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>45</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>38</v>
+      <c r="B153" t="s">
+        <v>70</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D153">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E153">
         <v>0.05</v>
@@ -4409,7 +4426,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -4420,16 +4437,16 @@
         <v>44</v>
       </c>
       <c r="D154">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -4440,7 +4457,7 @@
         <v>44</v>
       </c>
       <c r="D155">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E155">
         <v>0.05</v>
@@ -4449,7 +4466,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -4460,7 +4477,7 @@
         <v>44</v>
       </c>
       <c r="D156">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E156">
         <v>0.05</v>
@@ -4469,7 +4486,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>45</v>
       </c>
@@ -4480,7 +4497,7 @@
         <v>44</v>
       </c>
       <c r="D157">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E157">
         <v>0.05</v>
@@ -4489,7 +4506,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>45</v>
       </c>
@@ -4500,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="D158">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E158">
         <v>0.05</v>
@@ -4509,7 +4526,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -4520,7 +4537,7 @@
         <v>44</v>
       </c>
       <c r="D159">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E159">
         <v>0.05</v>
@@ -4529,47 +4546,47 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D160">
-        <v>2050</v>
+        <v>2021</v>
       </c>
       <c r="E160">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D161">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E161">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -4580,7 +4597,7 @@
         <v>69</v>
       </c>
       <c r="D162">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -4589,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -4600,7 +4617,7 @@
         <v>69</v>
       </c>
       <c r="D163">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -4609,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -4620,7 +4637,7 @@
         <v>69</v>
       </c>
       <c r="D164">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -4629,18 +4646,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D165">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -4649,18 +4666,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>45</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D166">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -4669,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -4680,7 +4697,7 @@
         <v>69</v>
       </c>
       <c r="D167">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -4689,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -4700,7 +4717,7 @@
         <v>69</v>
       </c>
       <c r="D168">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -4709,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -4720,7 +4737,7 @@
         <v>69</v>
       </c>
       <c r="D169">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4729,18 +4746,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D170">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4749,27 +4766,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D171">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -4780,16 +4797,16 @@
         <v>71</v>
       </c>
       <c r="D172">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>45</v>
       </c>
@@ -4800,16 +4817,16 @@
         <v>71</v>
       </c>
       <c r="D173">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E173">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F173">
         <v>0.02</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -4820,16 +4837,16 @@
         <v>71</v>
       </c>
       <c r="D174">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E174">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F174">
         <v>0.02</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -4840,16 +4857,16 @@
         <v>71</v>
       </c>
       <c r="D175">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E175">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -4860,16 +4877,16 @@
         <v>71</v>
       </c>
       <c r="D176">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E176">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F176">
         <v>0.02</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -4880,16 +4897,16 @@
         <v>71</v>
       </c>
       <c r="D177">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -4900,16 +4917,16 @@
         <v>71</v>
       </c>
       <c r="D178">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E178">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F178">
         <v>0.02</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -4920,56 +4937,56 @@
         <v>71</v>
       </c>
       <c r="D179">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E179">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F179">
         <v>0.02</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D180">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E180">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D181">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E181">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F181">
         <v>0.02</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -4980,16 +4997,16 @@
         <v>71</v>
       </c>
       <c r="D182">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -5000,16 +5017,16 @@
         <v>71</v>
       </c>
       <c r="D183">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E183">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F183">
         <v>0.02</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -5020,16 +5037,16 @@
         <v>71</v>
       </c>
       <c r="D184">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E184">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F184">
         <v>0.02</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>45</v>
       </c>
@@ -5040,16 +5057,16 @@
         <v>71</v>
       </c>
       <c r="D185">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E185">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>45</v>
       </c>
@@ -5060,16 +5077,16 @@
         <v>71</v>
       </c>
       <c r="D186">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E186">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F186">
         <v>0.02</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>45</v>
       </c>
@@ -5080,16 +5097,16 @@
         <v>71</v>
       </c>
       <c r="D187">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>45</v>
       </c>
@@ -5100,16 +5117,16 @@
         <v>71</v>
       </c>
       <c r="D188">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E188">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F188">
         <v>0.02</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>45</v>
       </c>
@@ -5120,56 +5137,56 @@
         <v>71</v>
       </c>
       <c r="D189">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E189">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F189">
         <v>0.02</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B190" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D190">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E190">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F190">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B191" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D191">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E191">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F191">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>46</v>
       </c>
@@ -5180,7 +5197,7 @@
         <v>42</v>
       </c>
       <c r="D192">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E192">
         <v>0.05</v>
@@ -5189,7 +5206,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>46</v>
       </c>
@@ -5200,7 +5217,7 @@
         <v>42</v>
       </c>
       <c r="D193">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E193">
         <v>0.05</v>
@@ -5209,7 +5226,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>46</v>
       </c>
@@ -5220,7 +5237,7 @@
         <v>42</v>
       </c>
       <c r="D194">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E194">
         <v>0.05</v>
@@ -5229,18 +5246,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>46</v>
       </c>
       <c r="B195" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D195">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E195">
         <v>0.05</v>
@@ -5249,18 +5266,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>46</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D196">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E196">
         <v>0.05</v>
@@ -5269,7 +5286,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>46</v>
       </c>
@@ -5280,7 +5297,7 @@
         <v>43</v>
       </c>
       <c r="D197">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E197">
         <v>0.05</v>
@@ -5289,7 +5306,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -5300,7 +5317,7 @@
         <v>43</v>
       </c>
       <c r="D198">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E198">
         <v>0.05</v>
@@ -5309,7 +5326,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -5320,7 +5337,7 @@
         <v>43</v>
       </c>
       <c r="D199">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E199">
         <v>0.05</v>
@@ -5329,18 +5346,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>46</v>
       </c>
-      <c r="B200" t="s">
-        <v>35</v>
+      <c r="B200" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D200">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E200">
         <v>0.05</v>
@@ -5349,18 +5366,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>46</v>
       </c>
-      <c r="B201" t="s">
-        <v>35</v>
+      <c r="B201" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D201">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E201">
         <v>0.05</v>
@@ -5369,7 +5386,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>46</v>
       </c>
@@ -5380,7 +5397,7 @@
         <v>44</v>
       </c>
       <c r="D202">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E202">
         <v>0.05</v>
@@ -5389,7 +5406,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>46</v>
       </c>
@@ -5400,7 +5417,7 @@
         <v>44</v>
       </c>
       <c r="D203">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E203">
         <v>0.05</v>
@@ -5409,7 +5426,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>46</v>
       </c>
@@ -5420,7 +5437,7 @@
         <v>44</v>
       </c>
       <c r="D204">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E204">
         <v>0.05</v>
@@ -5429,18 +5446,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>46</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D205">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E205">
         <v>0.05</v>
@@ -5449,18 +5466,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>46</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D206">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E206">
         <v>0.05</v>
@@ -5469,7 +5486,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>46</v>
       </c>
@@ -5480,7 +5497,7 @@
         <v>44</v>
       </c>
       <c r="D207">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E207">
         <v>0.05</v>
@@ -5489,7 +5506,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -5500,7 +5517,7 @@
         <v>44</v>
       </c>
       <c r="D208">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E208">
         <v>0.05</v>
@@ -5509,7 +5526,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>46</v>
       </c>
@@ -5520,7 +5537,7 @@
         <v>44</v>
       </c>
       <c r="D209">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E209">
         <v>0.05</v>
@@ -5529,18 +5546,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="5" t="s">
-        <v>38</v>
+      <c r="B210" t="s">
+        <v>70</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D210">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E210">
         <v>0.05</v>
@@ -5549,18 +5566,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>46</v>
       </c>
-      <c r="B211" s="5" t="s">
-        <v>38</v>
+      <c r="B211" t="s">
+        <v>70</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D211">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E211">
         <v>0.05</v>
@@ -5569,7 +5586,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -5580,7 +5597,7 @@
         <v>44</v>
       </c>
       <c r="D212">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E212">
         <v>0.05</v>
@@ -5589,7 +5606,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -5600,7 +5617,7 @@
         <v>44</v>
       </c>
       <c r="D213">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E213">
         <v>0.05</v>
@@ -5609,7 +5626,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>46</v>
       </c>
@@ -5620,7 +5637,7 @@
         <v>44</v>
       </c>
       <c r="D214">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E214">
         <v>0.05</v>
@@ -5629,47 +5646,47 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D215">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E215">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D216">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E216">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F216">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>46</v>
       </c>
@@ -5680,16 +5697,16 @@
         <v>69</v>
       </c>
       <c r="D217">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -5700,16 +5717,16 @@
         <v>69</v>
       </c>
       <c r="D218">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E218">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F218">
         <v>0.02</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -5720,56 +5737,56 @@
         <v>69</v>
       </c>
       <c r="D219">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E219">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F219">
         <v>0.02</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>46</v>
       </c>
       <c r="B220" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D220">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E220">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D221">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E221">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F221">
         <v>0.02</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>46</v>
       </c>
@@ -5780,16 +5797,16 @@
         <v>69</v>
       </c>
       <c r="D222">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>46</v>
       </c>
@@ -5800,16 +5817,16 @@
         <v>69</v>
       </c>
       <c r="D223">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E223">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F223">
         <v>0.02</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -5820,56 +5837,56 @@
         <v>69</v>
       </c>
       <c r="D224">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E224">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F224">
         <v>0.02</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>46</v>
       </c>
       <c r="B225" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D225">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E225">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>46</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D226">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E226">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F226">
         <v>0.02</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>46</v>
       </c>
@@ -5880,16 +5897,16 @@
         <v>71</v>
       </c>
       <c r="D227">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>46</v>
       </c>
@@ -5900,16 +5917,16 @@
         <v>71</v>
       </c>
       <c r="D228">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E228">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F228">
         <v>0.02</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>46</v>
       </c>
@@ -5920,16 +5937,16 @@
         <v>71</v>
       </c>
       <c r="D229">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E229">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F229">
         <v>0.02</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>46</v>
       </c>
@@ -5940,16 +5957,16 @@
         <v>71</v>
       </c>
       <c r="D230">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E230">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>46</v>
       </c>
@@ -5960,16 +5977,16 @@
         <v>71</v>
       </c>
       <c r="D231">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E231">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F231">
         <v>0.02</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>46</v>
       </c>
@@ -5980,16 +5997,16 @@
         <v>71</v>
       </c>
       <c r="D232">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>46</v>
       </c>
@@ -6000,16 +6017,16 @@
         <v>71</v>
       </c>
       <c r="D233">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E233">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F233">
         <v>0.02</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>46</v>
       </c>
@@ -6020,56 +6037,56 @@
         <v>71</v>
       </c>
       <c r="D234">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E234">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F234">
         <v>0.02</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>46</v>
       </c>
       <c r="B235" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D235">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E235">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D236">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E236">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F236">
         <v>0.02</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>46</v>
       </c>
@@ -6080,16 +6097,16 @@
         <v>71</v>
       </c>
       <c r="D237">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>46</v>
       </c>
@@ -6100,16 +6117,16 @@
         <v>71</v>
       </c>
       <c r="D238">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E238">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F238">
         <v>0.02</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>46</v>
       </c>
@@ -6120,16 +6137,16 @@
         <v>71</v>
       </c>
       <c r="D239">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E239">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F239">
         <v>0.02</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>46</v>
       </c>
@@ -6140,16 +6157,16 @@
         <v>71</v>
       </c>
       <c r="D240">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E240">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>46</v>
       </c>
@@ -6160,16 +6177,16 @@
         <v>71</v>
       </c>
       <c r="D241">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E241">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F241">
         <v>0.02</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>46</v>
       </c>
@@ -6180,16 +6197,16 @@
         <v>71</v>
       </c>
       <c r="D242">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>46</v>
       </c>
@@ -6200,16 +6217,16 @@
         <v>71</v>
       </c>
       <c r="D243">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E243">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F243">
         <v>0.02</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>46</v>
       </c>
@@ -6220,56 +6237,56 @@
         <v>71</v>
       </c>
       <c r="D244">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E244">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F244">
         <v>0.02</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D245">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E245">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D246">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E246">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F246">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -6280,16 +6297,16 @@
         <v>42</v>
       </c>
       <c r="D247">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6317,7 @@
         <v>42</v>
       </c>
       <c r="D248">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E248">
         <v>0.05</v>
@@ -6309,7 +6326,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -6320,7 +6337,7 @@
         <v>42</v>
       </c>
       <c r="D249">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E249">
         <v>0.05</v>
@@ -6329,38 +6346,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D250">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E250">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D251">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E251">
         <v>0.05</v>
@@ -6369,7 +6386,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6380,16 +6397,16 @@
         <v>43</v>
       </c>
       <c r="D252">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -6400,7 +6417,7 @@
         <v>43</v>
       </c>
       <c r="D253">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E253">
         <v>0.05</v>
@@ -6409,7 +6426,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -6420,7 +6437,7 @@
         <v>43</v>
       </c>
       <c r="D254">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E254">
         <v>0.05</v>
@@ -6429,38 +6446,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>4</v>
       </c>
-      <c r="B255" t="s">
-        <v>35</v>
+      <c r="B255" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D255">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E255">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>4</v>
       </c>
-      <c r="B256" t="s">
-        <v>35</v>
+      <c r="B256" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D256">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E256">
         <v>0.05</v>
@@ -6469,7 +6486,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -6480,16 +6497,16 @@
         <v>44</v>
       </c>
       <c r="D257">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -6500,7 +6517,7 @@
         <v>44</v>
       </c>
       <c r="D258">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E258">
         <v>0.05</v>
@@ -6509,7 +6526,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -6520,7 +6537,7 @@
         <v>44</v>
       </c>
       <c r="D259">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E259">
         <v>0.05</v>
@@ -6529,38 +6546,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>4</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D260">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E260">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>4</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D261">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E261">
         <v>0.05</v>
@@ -6569,7 +6586,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -6580,16 +6597,16 @@
         <v>44</v>
       </c>
       <c r="D262">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -6600,7 +6617,7 @@
         <v>44</v>
       </c>
       <c r="D263">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E263">
         <v>0.05</v>
@@ -6609,7 +6626,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -6620,7 +6637,7 @@
         <v>44</v>
       </c>
       <c r="D264">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E264">
         <v>0.05</v>
@@ -6629,38 +6646,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>4</v>
       </c>
-      <c r="B265" s="5" t="s">
-        <v>38</v>
+      <c r="B265" t="s">
+        <v>70</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D265">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E265">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>4</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>38</v>
+      <c r="B266" t="s">
+        <v>70</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D266">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E266">
         <v>0.05</v>
@@ -6669,7 +6686,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -6680,16 +6697,16 @@
         <v>44</v>
       </c>
       <c r="D267">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6700,7 +6717,7 @@
         <v>44</v>
       </c>
       <c r="D268">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E268">
         <v>0.05</v>
@@ -6709,7 +6726,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -6720,7 +6737,7 @@
         <v>44</v>
       </c>
       <c r="D269">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E269">
         <v>0.05</v>
@@ -6729,47 +6746,47 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D270">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E270">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D271">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E271">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -6780,7 +6797,7 @@
         <v>69</v>
       </c>
       <c r="D272">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6789,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -6800,7 +6817,7 @@
         <v>69</v>
       </c>
       <c r="D273">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6809,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6820,7 +6837,7 @@
         <v>69</v>
       </c>
       <c r="D274">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -6829,18 +6846,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D275">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -6849,18 +6866,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D276">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -6869,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -6880,7 +6897,7 @@
         <v>69</v>
       </c>
       <c r="D277">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -6889,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -6900,7 +6917,7 @@
         <v>69</v>
       </c>
       <c r="D278">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -6909,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -6920,7 +6937,7 @@
         <v>69</v>
       </c>
       <c r="D279">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6929,18 +6946,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D280">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6949,27 +6966,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D281">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6980,16 +6997,16 @@
         <v>71</v>
       </c>
       <c r="D282">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -7000,16 +7017,16 @@
         <v>71</v>
       </c>
       <c r="D283">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E283">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F283">
         <v>0.02</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -7020,16 +7037,16 @@
         <v>71</v>
       </c>
       <c r="D284">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E284">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F284">
         <v>0.02</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -7040,16 +7057,16 @@
         <v>71</v>
       </c>
       <c r="D285">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E285">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -7060,16 +7077,16 @@
         <v>71</v>
       </c>
       <c r="D286">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E286">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F286">
         <v>0.02</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -7080,16 +7097,16 @@
         <v>71</v>
       </c>
       <c r="D287">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -7100,16 +7117,16 @@
         <v>71</v>
       </c>
       <c r="D288">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E288">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F288">
         <v>0.02</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -7120,56 +7137,56 @@
         <v>71</v>
       </c>
       <c r="D289">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E289">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F289">
         <v>0.02</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D290">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E290">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F290">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D291">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E291">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F291">
         <v>0.02</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -7180,16 +7197,16 @@
         <v>71</v>
       </c>
       <c r="D292">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -7200,16 +7217,16 @@
         <v>71</v>
       </c>
       <c r="D293">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E293">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F293">
         <v>0.02</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -7220,16 +7237,16 @@
         <v>71</v>
       </c>
       <c r="D294">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E294">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F294">
         <v>0.02</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -7240,16 +7257,16 @@
         <v>71</v>
       </c>
       <c r="D295">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E295">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -7260,16 +7277,16 @@
         <v>71</v>
       </c>
       <c r="D296">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E296">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F296">
         <v>0.02</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -7280,16 +7297,16 @@
         <v>71</v>
       </c>
       <c r="D297">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -7300,16 +7317,16 @@
         <v>71</v>
       </c>
       <c r="D298">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E298">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F298">
         <v>0.02</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -7320,56 +7337,56 @@
         <v>71</v>
       </c>
       <c r="D299">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E299">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F299">
         <v>0.02</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B300" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D300">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E300">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D301">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E301">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F301">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>30</v>
       </c>
@@ -7380,16 +7397,16 @@
         <v>42</v>
       </c>
       <c r="D302">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>30</v>
       </c>
@@ -7400,7 +7417,7 @@
         <v>42</v>
       </c>
       <c r="D303">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E303">
         <v>0.05</v>
@@ -7409,7 +7426,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>30</v>
       </c>
@@ -7420,7 +7437,7 @@
         <v>42</v>
       </c>
       <c r="D304">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E304">
         <v>0.05</v>
@@ -7429,38 +7446,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>30</v>
       </c>
       <c r="B305" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D305">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E305">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F305">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>30</v>
       </c>
       <c r="B306" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D306">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E306">
         <v>0.05</v>
@@ -7469,7 +7486,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>30</v>
       </c>
@@ -7480,16 +7497,16 @@
         <v>43</v>
       </c>
       <c r="D307">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>30</v>
       </c>
@@ -7500,7 +7517,7 @@
         <v>43</v>
       </c>
       <c r="D308">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E308">
         <v>0.05</v>
@@ -7509,7 +7526,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -7520,7 +7537,7 @@
         <v>43</v>
       </c>
       <c r="D309">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E309">
         <v>0.05</v>
@@ -7529,38 +7546,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>30</v>
       </c>
-      <c r="B310" t="s">
-        <v>35</v>
+      <c r="B310" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D310">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E310">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F310">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>30</v>
       </c>
-      <c r="B311" t="s">
-        <v>35</v>
+      <c r="B311" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D311">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E311">
         <v>0.05</v>
@@ -7569,7 +7586,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>30</v>
       </c>
@@ -7580,16 +7597,16 @@
         <v>44</v>
       </c>
       <c r="D312">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>30</v>
       </c>
@@ -7600,7 +7617,7 @@
         <v>44</v>
       </c>
       <c r="D313">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E313">
         <v>0.05</v>
@@ -7609,7 +7626,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>30</v>
       </c>
@@ -7620,7 +7637,7 @@
         <v>44</v>
       </c>
       <c r="D314">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E314">
         <v>0.05</v>
@@ -7629,38 +7646,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>30</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D315">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E315">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F315">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>30</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D316">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E316">
         <v>0.05</v>
@@ -7669,7 +7686,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>30</v>
       </c>
@@ -7680,16 +7697,16 @@
         <v>44</v>
       </c>
       <c r="D317">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>30</v>
       </c>
@@ -7700,7 +7717,7 @@
         <v>44</v>
       </c>
       <c r="D318">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E318">
         <v>0.05</v>
@@ -7709,7 +7726,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>30</v>
       </c>
@@ -7720,7 +7737,7 @@
         <v>44</v>
       </c>
       <c r="D319">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E319">
         <v>0.05</v>
@@ -7729,38 +7746,38 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>30</v>
       </c>
-      <c r="B320" s="5" t="s">
-        <v>38</v>
+      <c r="B320" t="s">
+        <v>70</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D320">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E320">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F320">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>30</v>
       </c>
-      <c r="B321" s="5" t="s">
-        <v>38</v>
+      <c r="B321" t="s">
+        <v>70</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D321">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E321">
         <v>0.05</v>
@@ -7769,7 +7786,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>30</v>
       </c>
@@ -7780,16 +7797,16 @@
         <v>44</v>
       </c>
       <c r="D322">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>30</v>
       </c>
@@ -7800,7 +7817,7 @@
         <v>44</v>
       </c>
       <c r="D323">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E323">
         <v>0.05</v>
@@ -7809,7 +7826,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>30</v>
       </c>
@@ -7820,7 +7837,7 @@
         <v>44</v>
       </c>
       <c r="D324">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E324">
         <v>0.05</v>
@@ -7829,47 +7846,47 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>30</v>
       </c>
       <c r="B325" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D325">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E325">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F325">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>30</v>
       </c>
       <c r="B326" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D326">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E326">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>30</v>
       </c>
@@ -7880,7 +7897,7 @@
         <v>69</v>
       </c>
       <c r="D327">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -7889,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>30</v>
       </c>
@@ -7900,7 +7917,7 @@
         <v>69</v>
       </c>
       <c r="D328">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -7909,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>30</v>
       </c>
@@ -7920,7 +7937,7 @@
         <v>69</v>
       </c>
       <c r="D329">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -7929,18 +7946,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>30</v>
       </c>
       <c r="B330" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D330">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -7949,18 +7966,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>30</v>
       </c>
       <c r="B331" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D331">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -7969,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>30</v>
       </c>
@@ -7980,7 +7997,7 @@
         <v>69</v>
       </c>
       <c r="D332">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -7989,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>30</v>
       </c>
@@ -8000,7 +8017,7 @@
         <v>69</v>
       </c>
       <c r="D333">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -8009,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>30</v>
       </c>
@@ -8020,7 +8037,7 @@
         <v>69</v>
       </c>
       <c r="D334">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -8029,18 +8046,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>30</v>
       </c>
       <c r="B335" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D335">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -8049,27 +8066,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>30</v>
       </c>
       <c r="B336" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D336">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>30</v>
       </c>
@@ -8080,16 +8097,16 @@
         <v>71</v>
       </c>
       <c r="D337">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>30</v>
       </c>
@@ -8100,16 +8117,16 @@
         <v>71</v>
       </c>
       <c r="D338">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E338">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F338">
         <v>0.02</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>30</v>
       </c>
@@ -8120,16 +8137,16 @@
         <v>71</v>
       </c>
       <c r="D339">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E339">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F339">
         <v>0.02</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>30</v>
       </c>
@@ -8140,16 +8157,16 @@
         <v>71</v>
       </c>
       <c r="D340">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E340">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F340">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>30</v>
       </c>
@@ -8160,16 +8177,16 @@
         <v>71</v>
       </c>
       <c r="D341">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E341">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F341">
         <v>0.02</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -8180,16 +8197,16 @@
         <v>71</v>
       </c>
       <c r="D342">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>30</v>
       </c>
@@ -8200,16 +8217,16 @@
         <v>71</v>
       </c>
       <c r="D343">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E343">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F343">
         <v>0.02</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>30</v>
       </c>
@@ -8220,56 +8237,56 @@
         <v>71</v>
       </c>
       <c r="D344">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E344">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F344">
         <v>0.02</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>30</v>
       </c>
       <c r="B345" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D345">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E345">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F345">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D346">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E346">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F346">
         <v>0.02</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8280,16 +8297,16 @@
         <v>71</v>
       </c>
       <c r="D347">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>30</v>
       </c>
@@ -8300,16 +8317,16 @@
         <v>71</v>
       </c>
       <c r="D348">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E348">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F348">
         <v>0.02</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>30</v>
       </c>
@@ -8320,16 +8337,16 @@
         <v>71</v>
       </c>
       <c r="D349">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E349">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F349">
         <v>0.02</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>30</v>
       </c>
@@ -8340,16 +8357,16 @@
         <v>71</v>
       </c>
       <c r="D350">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E350">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F350">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>30</v>
       </c>
@@ -8360,16 +8377,16 @@
         <v>71</v>
       </c>
       <c r="D351">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E351">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="F351">
         <v>0.02</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>30</v>
       </c>
@@ -8380,16 +8397,16 @@
         <v>71</v>
       </c>
       <c r="D352">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>30</v>
       </c>
@@ -8400,16 +8417,16 @@
         <v>71</v>
       </c>
       <c r="D353">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E353">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F353">
         <v>0.02</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>30</v>
       </c>
@@ -8420,299 +8437,259 @@
         <v>71</v>
       </c>
       <c r="D354">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E354">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F354">
         <v>0.02</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>30</v>
-      </c>
-      <c r="B355" t="s">
-        <v>40</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D355">
-        <v>2040</v>
-      </c>
-      <c r="E355">
-        <v>0.1</v>
-      </c>
-      <c r="F355">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>30</v>
-      </c>
-      <c r="B356" t="s">
-        <v>40</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D356">
-        <v>2100</v>
-      </c>
-      <c r="E356">
-        <v>0.3</v>
-      </c>
-      <c r="F356">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B357" s="6"/>
+      <c r="C357" s="6"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B358" s="6"/>
+      <c r="C358" s="6"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F356" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F356">
-      <sortCondition descending="1" ref="A1:A356"/>
+  <autoFilter ref="A1:F354" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F354">
+      <sortCondition descending="1" ref="A1:A354"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:C1">
@@ -8745,9 +8722,9 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8791,7 +8768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -8827,7 +8804,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -8863,7 +8840,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8899,7 +8876,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -8935,7 +8912,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8971,7 +8948,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -9007,7 +8984,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -9043,7 +9020,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -9079,7 +9056,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -9115,7 +9092,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9151,7 +9128,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -9187,7 +9164,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -9223,7 +9200,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -9259,7 +9236,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9295,7 +9272,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -9323,7 +9300,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9337,7 +9314,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -9351,7 +9328,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -9365,7 +9342,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -9379,7 +9356,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -9393,7 +9370,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -9407,7 +9384,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -9421,7 +9398,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -9435,7 +9412,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -9449,7 +9426,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -9463,7 +9440,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -9477,7 +9454,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -9491,7 +9468,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -9505,7 +9482,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -9513,7 +9490,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -9521,7 +9498,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -9529,7 +9506,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -9537,7 +9514,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -9545,7 +9522,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -9553,7 +9530,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -9561,7 +9538,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -9569,7 +9546,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -9577,7 +9554,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -9585,7 +9562,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -9593,7 +9570,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -9601,7 +9578,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -9609,7 +9586,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -9617,7 +9594,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -9625,7 +9602,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -9633,7 +9610,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -9641,7 +9618,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -9649,7 +9626,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -9657,7 +9634,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -9665,7 +9642,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -9673,7 +9650,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -9681,7 +9658,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -9689,7 +9666,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -9697,7 +9674,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -9705,7 +9682,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -9713,7 +9690,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -9721,7 +9698,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -9729,7 +9706,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -9737,7 +9714,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -9745,7 +9722,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -9753,7 +9730,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -9761,7 +9738,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -9769,7 +9746,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -9777,7 +9754,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -9785,7 +9762,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -9793,7 +9770,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -9801,7 +9778,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -9809,7 +9786,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -9817,7 +9794,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -9825,7 +9802,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -9833,7 +9810,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -9841,7 +9818,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -9849,7 +9826,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -9857,7 +9834,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -9865,7 +9842,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -9873,7 +9850,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -9881,7 +9858,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -9889,7 +9866,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -9897,7 +9874,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -9905,7 +9882,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -9913,7 +9890,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -9921,7 +9898,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -9929,7 +9906,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -9937,7 +9914,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -9945,7 +9922,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -9953,7 +9930,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -9961,7 +9938,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -9969,7 +9946,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -9977,7 +9954,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -9985,7 +9962,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -9993,7 +9970,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -10001,7 +9978,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -10009,7 +9986,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -10017,7 +9994,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -10025,7 +10002,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -10033,7 +10010,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -10041,7 +10018,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -10049,7 +10026,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -10057,7 +10034,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -10065,7 +10042,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -10073,7 +10050,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -10081,7 +10058,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -10089,7 +10066,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -10148,9 +10125,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -10161,7 +10138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10172,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -10183,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -10194,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -10205,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -10216,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -10227,292 +10204,292 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="2"/>
     </row>
   </sheetData>

--- a/input_data/fuel_mixing_assumptions.xlsx
+++ b/input_data/fuel_mixing_assumptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB79C6F5-0341-4868-9F17-E613B226A10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E530130-1934-41E5-BC97-34239ACF7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
@@ -1340,14 +1340,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1857,10 +1857,10 @@
         <v>44</v>
       </c>
       <c r="D25">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E25">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="F25">
         <v>0.34</v>
@@ -2017,10 +2017,10 @@
         <v>44</v>
       </c>
       <c r="D33">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E33">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="F33">
         <v>0.34</v>
@@ -2177,10 +2177,10 @@
         <v>44</v>
       </c>
       <c r="D41">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E41">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="F41">
         <v>0.34</v>

--- a/input_data/fuel_mixing_assumptions.xlsx
+++ b/input_data/fuel_mixing_assumptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E530130-1934-41E5-BC97-34239ACF7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC67FD9-40B0-4449-9A4F-5D19D1227056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
+    <workbookView xWindow="-26805" yWindow="-15915" windowWidth="56460" windowHeight="14865" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="demand_side_constant" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$354</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="72">
   <si>
     <t>Region</t>
   </si>
@@ -1338,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H416"/>
+  <dimension ref="A1:J412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3760,10 +3760,10 @@
         <v>2020</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -3780,10 +3780,10 @@
         <v>2021</v>
       </c>
       <c r="E121">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F121">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -3800,10 +3800,10 @@
         <v>2022</v>
       </c>
       <c r="E122">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F122">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -3820,10 +3820,10 @@
         <v>2027</v>
       </c>
       <c r="E123">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F123">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -3840,10 +3840,10 @@
         <v>2030</v>
       </c>
       <c r="E124">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F124">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -3860,10 +3860,10 @@
         <v>2035</v>
       </c>
       <c r="E125">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F125">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -3880,10 +3880,10 @@
         <v>2050</v>
       </c>
       <c r="E126">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F126">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -3900,10 +3900,10 @@
         <v>2100</v>
       </c>
       <c r="E127">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F127">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -3920,10 +3920,10 @@
         <v>2020</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -3940,10 +3940,10 @@
         <v>2021</v>
       </c>
       <c r="E129">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F129">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -3960,10 +3960,10 @@
         <v>2022</v>
       </c>
       <c r="E130">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F130">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -3980,10 +3980,10 @@
         <v>2027</v>
       </c>
       <c r="E131">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F131">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -4000,10 +4000,10 @@
         <v>2030</v>
       </c>
       <c r="E132">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F132">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -4020,10 +4020,10 @@
         <v>2035</v>
       </c>
       <c r="E133">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F133">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -4040,10 +4040,10 @@
         <v>2050</v>
       </c>
       <c r="E134">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F134">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -4060,10 +4060,10 @@
         <v>2100</v>
       </c>
       <c r="E135">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F135">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -4100,10 +4100,10 @@
         <v>2021</v>
       </c>
       <c r="E137">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -4120,10 +4120,10 @@
         <v>2022</v>
       </c>
       <c r="E138">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -4140,7 +4140,7 @@
         <v>2027</v>
       </c>
       <c r="E139">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F139">
         <v>0.05</v>
@@ -4163,7 +4163,7 @@
         <v>0.05</v>
       </c>
       <c r="F140">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -4183,7 +4183,7 @@
         <v>0.05</v>
       </c>
       <c r="F141">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -4200,10 +4200,10 @@
         <v>2050</v>
       </c>
       <c r="E142">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F142">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -4220,10 +4220,10 @@
         <v>2100</v>
       </c>
       <c r="E143">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F143">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -4260,10 +4260,10 @@
         <v>2021</v>
       </c>
       <c r="E145">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -4280,10 +4280,10 @@
         <v>2022</v>
       </c>
       <c r="E146">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -4300,7 +4300,7 @@
         <v>2027</v>
       </c>
       <c r="E147">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F147">
         <v>0.05</v>
@@ -4323,7 +4323,7 @@
         <v>0.05</v>
       </c>
       <c r="F148">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -4343,7 +4343,7 @@
         <v>0.05</v>
       </c>
       <c r="F149">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -4360,10 +4360,10 @@
         <v>2050</v>
       </c>
       <c r="E150">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F150">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -4380,10 +4380,10 @@
         <v>2100</v>
       </c>
       <c r="E151">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F151">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -4420,10 +4420,10 @@
         <v>2021</v>
       </c>
       <c r="E153">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -4440,10 +4440,10 @@
         <v>2022</v>
       </c>
       <c r="E154">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -4460,7 +4460,7 @@
         <v>2027</v>
       </c>
       <c r="E155">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F155">
         <v>0.05</v>
@@ -4483,7 +4483,7 @@
         <v>0.05</v>
       </c>
       <c r="F156">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -4503,7 +4503,7 @@
         <v>0.05</v>
       </c>
       <c r="F157">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -4520,10 +4520,10 @@
         <v>2050</v>
       </c>
       <c r="E158">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F158">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -4540,10 +4540,10 @@
         <v>2100</v>
       </c>
       <c r="E159">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F159">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>71</v>
       </c>
       <c r="D170">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4765,8 +4765,9 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>45</v>
       </c>
@@ -4777,16 +4778,17 @@
         <v>71</v>
       </c>
       <c r="D171">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E171">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -4797,16 +4799,17 @@
         <v>71</v>
       </c>
       <c r="D172">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="E172">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>45</v>
       </c>
@@ -4817,16 +4820,17 @@
         <v>71</v>
       </c>
       <c r="D173">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="E173">
         <v>0.1</v>
       </c>
       <c r="F173">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -4837,16 +4841,17 @@
         <v>71</v>
       </c>
       <c r="D174">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E174">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F174">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -4857,16 +4862,17 @@
         <v>71</v>
       </c>
       <c r="D175">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -4877,16 +4883,17 @@
         <v>71</v>
       </c>
       <c r="D176">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E176">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="F176">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.3</v>
+      </c>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -4897,56 +4904,59 @@
         <v>71</v>
       </c>
       <c r="D177">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E177">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F177">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>45</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D178">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="E178">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>45</v>
       </c>
       <c r="B179" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D179">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E179">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -4957,16 +4967,17 @@
         <v>71</v>
       </c>
       <c r="D180">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.02</v>
+      </c>
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -4977,16 +4988,17 @@
         <v>71</v>
       </c>
       <c r="D181">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="E181">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F181">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -4997,16 +5009,17 @@
         <v>71</v>
       </c>
       <c r="D182">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E182">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F182">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -5017,16 +5030,17 @@
         <v>71</v>
       </c>
       <c r="D183">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E183">
         <v>0.1</v>
       </c>
       <c r="F183">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -5037,16 +5051,17 @@
         <v>71</v>
       </c>
       <c r="D184">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="E184">
+        <v>0.2</v>
+      </c>
+      <c r="F184">
         <v>0.3</v>
       </c>
-      <c r="F184">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>45</v>
       </c>
@@ -5057,96 +5072,96 @@
         <v>71</v>
       </c>
       <c r="D185">
+        <v>2100</v>
+      </c>
+      <c r="E185">
+        <v>0.3</v>
+      </c>
+      <c r="F185">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186">
         <v>2021</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>45</v>
-      </c>
-      <c r="B186" t="s">
-        <v>40</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D186">
+      <c r="E186">
+        <v>0.05</v>
+      </c>
+      <c r="F186">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187" t="s">
+        <v>37</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187">
         <v>2030</v>
       </c>
-      <c r="E186">
-        <v>0.01</v>
-      </c>
-      <c r="F186">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>45</v>
-      </c>
-      <c r="B187" t="s">
-        <v>40</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D187">
+      <c r="E187">
+        <v>0.05</v>
+      </c>
+      <c r="F187">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D188">
         <v>2035</v>
       </c>
-      <c r="E187">
-        <v>0.05</v>
-      </c>
-      <c r="F187">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>45</v>
-      </c>
-      <c r="B188" t="s">
-        <v>40</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D188">
+      <c r="E188">
+        <v>0.05</v>
+      </c>
+      <c r="F188">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" t="s">
+        <v>37</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189">
         <v>2040</v>
       </c>
-      <c r="E188">
-        <v>0.1</v>
-      </c>
-      <c r="F188">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>45</v>
-      </c>
-      <c r="B189" t="s">
-        <v>40</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D189">
-        <v>2100</v>
-      </c>
       <c r="E189">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F189">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>46</v>
       </c>
@@ -5157,7 +5172,7 @@
         <v>42</v>
       </c>
       <c r="D190">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E190">
         <v>0.05</v>
@@ -5166,18 +5181,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>46</v>
       </c>
       <c r="B191" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D191">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E191">
         <v>0.05</v>
@@ -5186,18 +5201,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D192">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E192">
         <v>0.05</v>
@@ -5211,13 +5226,13 @@
         <v>46</v>
       </c>
       <c r="B193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D193">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E193">
         <v>0.05</v>
@@ -5231,13 +5246,13 @@
         <v>46</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D194">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E194">
         <v>0.05</v>
@@ -5257,7 +5272,7 @@
         <v>43</v>
       </c>
       <c r="D195">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E195">
         <v>0.05</v>
@@ -5270,14 +5285,14 @@
       <c r="A196" t="s">
         <v>46</v>
       </c>
-      <c r="B196" t="s">
-        <v>35</v>
+      <c r="B196" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D196">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E196">
         <v>0.05</v>
@@ -5290,14 +5305,14 @@
       <c r="A197" t="s">
         <v>46</v>
       </c>
-      <c r="B197" t="s">
-        <v>35</v>
+      <c r="B197" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D197">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E197">
         <v>0.05</v>
@@ -5310,14 +5325,14 @@
       <c r="A198" t="s">
         <v>46</v>
       </c>
-      <c r="B198" t="s">
-        <v>35</v>
+      <c r="B198" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D198">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E198">
         <v>0.05</v>
@@ -5330,14 +5345,14 @@
       <c r="A199" t="s">
         <v>46</v>
       </c>
-      <c r="B199" t="s">
-        <v>35</v>
+      <c r="B199" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D199">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E199">
         <v>0.05</v>
@@ -5357,7 +5372,7 @@
         <v>44</v>
       </c>
       <c r="D200">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E200">
         <v>0.05</v>
@@ -5371,13 +5386,13 @@
         <v>46</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D201">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E201">
         <v>0.05</v>
@@ -5391,13 +5406,13 @@
         <v>46</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D202">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E202">
         <v>0.05</v>
@@ -5411,13 +5426,13 @@
         <v>46</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D203">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E203">
         <v>0.05</v>
@@ -5431,13 +5446,13 @@
         <v>46</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D204">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E204">
         <v>0.05</v>
@@ -5457,7 +5472,7 @@
         <v>44</v>
       </c>
       <c r="D205">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E205">
         <v>0.05</v>
@@ -5470,14 +5485,14 @@
       <c r="A206" t="s">
         <v>46</v>
       </c>
-      <c r="B206" s="5" t="s">
-        <v>38</v>
+      <c r="B206" t="s">
+        <v>70</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D206">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E206">
         <v>0.05</v>
@@ -5490,14 +5505,14 @@
       <c r="A207" t="s">
         <v>46</v>
       </c>
-      <c r="B207" s="5" t="s">
-        <v>38</v>
+      <c r="B207" t="s">
+        <v>70</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D207">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E207">
         <v>0.05</v>
@@ -5510,14 +5525,14 @@
       <c r="A208" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="5" t="s">
-        <v>38</v>
+      <c r="B208" t="s">
+        <v>70</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D208">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E208">
         <v>0.05</v>
@@ -5530,14 +5545,14 @@
       <c r="A209" t="s">
         <v>46</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>38</v>
+      <c r="B209" t="s">
+        <v>70</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D209">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E209">
         <v>0.05</v>
@@ -5557,7 +5572,7 @@
         <v>44</v>
       </c>
       <c r="D210">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E210">
         <v>0.05</v>
@@ -5571,19 +5586,19 @@
         <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D211">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E211">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -5591,19 +5606,19 @@
         <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D212">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E212">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F212">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -5611,19 +5626,19 @@
         <v>46</v>
       </c>
       <c r="B213" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D213">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E213">
         <v>0.05</v>
       </c>
       <c r="F213">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -5631,19 +5646,19 @@
         <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D214">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E214">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F214">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -5657,13 +5672,13 @@
         <v>69</v>
       </c>
       <c r="D215">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -5671,19 +5686,19 @@
         <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D216">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E216">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -5691,16 +5706,16 @@
         <v>46</v>
       </c>
       <c r="B217" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D217">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E217">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F217">
         <v>0.02</v>
@@ -5711,16 +5726,16 @@
         <v>46</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D218">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E218">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F218">
         <v>0.02</v>
@@ -5731,16 +5746,16 @@
         <v>46</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D219">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E219">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F219">
         <v>0.02</v>
@@ -5757,13 +5772,13 @@
         <v>69</v>
       </c>
       <c r="D220">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -5771,19 +5786,19 @@
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D221">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E221">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -5791,16 +5806,16 @@
         <v>46</v>
       </c>
       <c r="B222" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D222">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E222">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F222">
         <v>0.02</v>
@@ -5811,16 +5826,16 @@
         <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D223">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E223">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F223">
         <v>0.02</v>
@@ -5831,16 +5846,16 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D224">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E224">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F224">
         <v>0.02</v>
@@ -5857,13 +5872,13 @@
         <v>71</v>
       </c>
       <c r="D225">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -5877,13 +5892,13 @@
         <v>71</v>
       </c>
       <c r="D226">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E226">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -5897,10 +5912,10 @@
         <v>71</v>
       </c>
       <c r="D227">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E227">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F227">
         <v>0.02</v>
@@ -5917,10 +5932,10 @@
         <v>71</v>
       </c>
       <c r="D228">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E228">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F228">
         <v>0.02</v>
@@ -5937,10 +5952,10 @@
         <v>71</v>
       </c>
       <c r="D229">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E229">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F229">
         <v>0.02</v>
@@ -5957,13 +5972,13 @@
         <v>71</v>
       </c>
       <c r="D230">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -5971,19 +5986,19 @@
         <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D231">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E231">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -5991,16 +6006,16 @@
         <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D232">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E232">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F232">
         <v>0.02</v>
@@ -6011,16 +6026,16 @@
         <v>46</v>
       </c>
       <c r="B233" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D233">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E233">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F233">
         <v>0.02</v>
@@ -6031,16 +6046,16 @@
         <v>46</v>
       </c>
       <c r="B234" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D234">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E234">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F234">
         <v>0.02</v>
@@ -6057,13 +6072,13 @@
         <v>71</v>
       </c>
       <c r="D235">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -6077,13 +6092,13 @@
         <v>71</v>
       </c>
       <c r="D236">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E236">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -6097,10 +6112,10 @@
         <v>71</v>
       </c>
       <c r="D237">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E237">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F237">
         <v>0.02</v>
@@ -6117,10 +6132,10 @@
         <v>71</v>
       </c>
       <c r="D238">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E238">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F238">
         <v>0.02</v>
@@ -6137,10 +6152,10 @@
         <v>71</v>
       </c>
       <c r="D239">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E239">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F239">
         <v>0.02</v>
@@ -6157,93 +6172,93 @@
         <v>71</v>
       </c>
       <c r="D240">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D241">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E241">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D242">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E242">
         <v>0.05</v>
       </c>
       <c r="F242">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D243">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E243">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F243">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D244">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E244">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F244">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -6257,13 +6272,13 @@
         <v>42</v>
       </c>
       <c r="D245">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -6271,19 +6286,19 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D246">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E246">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -6291,13 +6306,13 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D247">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E247">
         <v>0.05</v>
@@ -6311,13 +6326,13 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D248">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E248">
         <v>0.05</v>
@@ -6331,13 +6346,13 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D249">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E249">
         <v>0.05</v>
@@ -6357,47 +6372,47 @@
         <v>43</v>
       </c>
       <c r="D250">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>4</v>
       </c>
-      <c r="B251" t="s">
-        <v>35</v>
+      <c r="B251" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D251">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E251">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>4</v>
       </c>
-      <c r="B252" t="s">
-        <v>35</v>
+      <c r="B252" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D252">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E252">
         <v>0.05</v>
@@ -6410,14 +6425,14 @@
       <c r="A253" t="s">
         <v>4</v>
       </c>
-      <c r="B253" t="s">
-        <v>35</v>
+      <c r="B253" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D253">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E253">
         <v>0.05</v>
@@ -6430,14 +6445,14 @@
       <c r="A254" t="s">
         <v>4</v>
       </c>
-      <c r="B254" t="s">
-        <v>35</v>
+      <c r="B254" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D254">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E254">
         <v>0.05</v>
@@ -6457,13 +6472,13 @@
         <v>44</v>
       </c>
       <c r="D255">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -6471,19 +6486,19 @@
         <v>4</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D256">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E256">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
@@ -6491,13 +6506,13 @@
         <v>4</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D257">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E257">
         <v>0.05</v>
@@ -6511,13 +6526,13 @@
         <v>4</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D258">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E258">
         <v>0.05</v>
@@ -6531,13 +6546,13 @@
         <v>4</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D259">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E259">
         <v>0.05</v>
@@ -6557,47 +6572,47 @@
         <v>44</v>
       </c>
       <c r="D260">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>4</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>38</v>
+      <c r="B261" t="s">
+        <v>70</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D261">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E261">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>4</v>
       </c>
-      <c r="B262" s="5" t="s">
-        <v>38</v>
+      <c r="B262" t="s">
+        <v>70</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D262">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E262">
         <v>0.05</v>
@@ -6610,14 +6625,14 @@
       <c r="A263" t="s">
         <v>4</v>
       </c>
-      <c r="B263" s="5" t="s">
-        <v>38</v>
+      <c r="B263" t="s">
+        <v>70</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D263">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E263">
         <v>0.05</v>
@@ -6630,14 +6645,14 @@
       <c r="A264" t="s">
         <v>4</v>
       </c>
-      <c r="B264" s="5" t="s">
-        <v>38</v>
+      <c r="B264" t="s">
+        <v>70</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D264">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E264">
         <v>0.05</v>
@@ -6657,13 +6672,13 @@
         <v>44</v>
       </c>
       <c r="D265">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -6671,19 +6686,19 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D266">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E266">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -6691,19 +6706,19 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D267">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E267">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -6711,19 +6726,19 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D268">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E268">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
@@ -6731,19 +6746,19 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D269">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E269">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -6757,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="D270">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -6771,13 +6786,13 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D271">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -6791,13 +6806,13 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D272">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6811,13 +6826,13 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D273">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6831,13 +6846,13 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D274">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -6857,7 +6872,7 @@
         <v>69</v>
       </c>
       <c r="D275">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -6871,13 +6886,13 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D276">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -6891,19 +6906,19 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D277">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -6911,19 +6926,19 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D278">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -6931,19 +6946,19 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D279">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -6957,13 +6972,13 @@
         <v>71</v>
       </c>
       <c r="D280">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -6977,13 +6992,13 @@
         <v>71</v>
       </c>
       <c r="D281">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E281">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -6997,10 +7012,10 @@
         <v>71</v>
       </c>
       <c r="D282">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E282">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F282">
         <v>0.02</v>
@@ -7017,10 +7032,10 @@
         <v>71</v>
       </c>
       <c r="D283">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E283">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F283">
         <v>0.02</v>
@@ -7037,10 +7052,10 @@
         <v>71</v>
       </c>
       <c r="D284">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E284">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F284">
         <v>0.02</v>
@@ -7057,13 +7072,13 @@
         <v>71</v>
       </c>
       <c r="D285">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -7071,19 +7086,19 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D286">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E286">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -7091,16 +7106,16 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D287">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E287">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F287">
         <v>0.02</v>
@@ -7111,16 +7126,16 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D288">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E288">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F288">
         <v>0.02</v>
@@ -7131,16 +7146,16 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D289">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E289">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F289">
         <v>0.02</v>
@@ -7157,13 +7172,13 @@
         <v>71</v>
       </c>
       <c r="D290">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -7177,13 +7192,13 @@
         <v>71</v>
       </c>
       <c r="D291">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E291">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -7197,10 +7212,10 @@
         <v>71</v>
       </c>
       <c r="D292">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E292">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F292">
         <v>0.02</v>
@@ -7217,10 +7232,10 @@
         <v>71</v>
       </c>
       <c r="D293">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E293">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F293">
         <v>0.02</v>
@@ -7237,10 +7252,10 @@
         <v>71</v>
       </c>
       <c r="D294">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E294">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F294">
         <v>0.02</v>
@@ -7257,93 +7272,93 @@
         <v>71</v>
       </c>
       <c r="D295">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B296" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D296">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E296">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F296">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B297" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D297">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E297">
         <v>0.05</v>
       </c>
       <c r="F297">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B298" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D298">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E298">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F298">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B299" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D299">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E299">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F299">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
@@ -7357,13 +7372,13 @@
         <v>42</v>
       </c>
       <c r="D300">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -7371,19 +7386,19 @@
         <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D301">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E301">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F301">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -7391,13 +7406,13 @@
         <v>30</v>
       </c>
       <c r="B302" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D302">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E302">
         <v>0.05</v>
@@ -7411,13 +7426,13 @@
         <v>30</v>
       </c>
       <c r="B303" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D303">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E303">
         <v>0.05</v>
@@ -7431,13 +7446,13 @@
         <v>30</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D304">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E304">
         <v>0.05</v>
@@ -7457,47 +7472,47 @@
         <v>43</v>
       </c>
       <c r="D305">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>30</v>
       </c>
-      <c r="B306" t="s">
-        <v>35</v>
+      <c r="B306" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D306">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E306">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F306">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>30</v>
       </c>
-      <c r="B307" t="s">
-        <v>35</v>
+      <c r="B307" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D307">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E307">
         <v>0.05</v>
@@ -7510,14 +7525,14 @@
       <c r="A308" t="s">
         <v>30</v>
       </c>
-      <c r="B308" t="s">
-        <v>35</v>
+      <c r="B308" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D308">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E308">
         <v>0.05</v>
@@ -7530,14 +7545,14 @@
       <c r="A309" t="s">
         <v>30</v>
       </c>
-      <c r="B309" t="s">
-        <v>35</v>
+      <c r="B309" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D309">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E309">
         <v>0.05</v>
@@ -7557,13 +7572,13 @@
         <v>44</v>
       </c>
       <c r="D310">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
@@ -7571,19 +7586,19 @@
         <v>30</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D311">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E311">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F311">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -7591,13 +7606,13 @@
         <v>30</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D312">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E312">
         <v>0.05</v>
@@ -7611,13 +7626,13 @@
         <v>30</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D313">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E313">
         <v>0.05</v>
@@ -7631,13 +7646,13 @@
         <v>30</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D314">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E314">
         <v>0.05</v>
@@ -7657,47 +7672,47 @@
         <v>44</v>
       </c>
       <c r="D315">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>30</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>38</v>
+      <c r="B316" t="s">
+        <v>70</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D316">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E316">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F316">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>30</v>
       </c>
-      <c r="B317" s="5" t="s">
-        <v>38</v>
+      <c r="B317" t="s">
+        <v>70</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D317">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E317">
         <v>0.05</v>
@@ -7710,14 +7725,14 @@
       <c r="A318" t="s">
         <v>30</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>38</v>
+      <c r="B318" t="s">
+        <v>70</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D318">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E318">
         <v>0.05</v>
@@ -7730,14 +7745,14 @@
       <c r="A319" t="s">
         <v>30</v>
       </c>
-      <c r="B319" s="5" t="s">
-        <v>38</v>
+      <c r="B319" t="s">
+        <v>70</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D319">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E319">
         <v>0.05</v>
@@ -7757,13 +7772,13 @@
         <v>44</v>
       </c>
       <c r="D320">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -7771,19 +7786,19 @@
         <v>30</v>
       </c>
       <c r="B321" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D321">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E321">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F321">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -7791,19 +7806,19 @@
         <v>30</v>
       </c>
       <c r="B322" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D322">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E322">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F322">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
@@ -7811,19 +7826,19 @@
         <v>30</v>
       </c>
       <c r="B323" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D323">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E323">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F323">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
@@ -7831,19 +7846,19 @@
         <v>30</v>
       </c>
       <c r="B324" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D324">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E324">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F324">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -7857,7 +7872,7 @@
         <v>69</v>
       </c>
       <c r="D325">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -7871,13 +7886,13 @@
         <v>30</v>
       </c>
       <c r="B326" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D326">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -7891,13 +7906,13 @@
         <v>30</v>
       </c>
       <c r="B327" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D327">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -7911,13 +7926,13 @@
         <v>30</v>
       </c>
       <c r="B328" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D328">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -7931,13 +7946,13 @@
         <v>30</v>
       </c>
       <c r="B329" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D329">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -7957,7 +7972,7 @@
         <v>69</v>
       </c>
       <c r="D330">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -7971,13 +7986,13 @@
         <v>30</v>
       </c>
       <c r="B331" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D331">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -7991,19 +8006,19 @@
         <v>30</v>
       </c>
       <c r="B332" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D332">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
@@ -8011,19 +8026,19 @@
         <v>30</v>
       </c>
       <c r="B333" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D333">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
@@ -8031,19 +8046,19 @@
         <v>30</v>
       </c>
       <c r="B334" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D334">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -8057,13 +8072,13 @@
         <v>71</v>
       </c>
       <c r="D335">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
@@ -8077,13 +8092,13 @@
         <v>71</v>
       </c>
       <c r="D336">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E336">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F336">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
@@ -8097,10 +8112,10 @@
         <v>71</v>
       </c>
       <c r="D337">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E337">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F337">
         <v>0.02</v>
@@ -8117,10 +8132,10 @@
         <v>71</v>
       </c>
       <c r="D338">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E338">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F338">
         <v>0.02</v>
@@ -8137,10 +8152,10 @@
         <v>71</v>
       </c>
       <c r="D339">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E339">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F339">
         <v>0.02</v>
@@ -8157,13 +8172,13 @@
         <v>71</v>
       </c>
       <c r="D340">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F340">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
@@ -8171,19 +8186,19 @@
         <v>30</v>
       </c>
       <c r="B341" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D341">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E341">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F341">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
@@ -8191,16 +8206,16 @@
         <v>30</v>
       </c>
       <c r="B342" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D342">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E342">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F342">
         <v>0.02</v>
@@ -8211,16 +8226,16 @@
         <v>30</v>
       </c>
       <c r="B343" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D343">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E343">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F343">
         <v>0.02</v>
@@ -8231,16 +8246,16 @@
         <v>30</v>
       </c>
       <c r="B344" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D344">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E344">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F344">
         <v>0.02</v>
@@ -8257,13 +8272,13 @@
         <v>71</v>
       </c>
       <c r="D345">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
@@ -8277,13 +8292,13 @@
         <v>71</v>
       </c>
       <c r="D346">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E346">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F346">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -8297,10 +8312,10 @@
         <v>71</v>
       </c>
       <c r="D347">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E347">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F347">
         <v>0.02</v>
@@ -8317,10 +8332,10 @@
         <v>71</v>
       </c>
       <c r="D348">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E348">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F348">
         <v>0.02</v>
@@ -8337,10 +8352,10 @@
         <v>71</v>
       </c>
       <c r="D349">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E349">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F349">
         <v>0.02</v>
@@ -8357,140 +8372,76 @@
         <v>71</v>
       </c>
       <c r="D350">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>30</v>
-      </c>
-      <c r="B351" t="s">
-        <v>40</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D351">
-        <v>2030</v>
-      </c>
-      <c r="E351">
-        <v>0.01</v>
-      </c>
-      <c r="F351">
         <v>0.02</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>30</v>
-      </c>
-      <c r="B352" t="s">
-        <v>40</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D352">
-        <v>2035</v>
-      </c>
-      <c r="E352">
-        <v>0.05</v>
-      </c>
-      <c r="F352">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>30</v>
-      </c>
-      <c r="B353" t="s">
-        <v>40</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D353">
-        <v>2040</v>
-      </c>
-      <c r="E353">
-        <v>0.1</v>
-      </c>
-      <c r="F353">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>30</v>
-      </c>
-      <c r="B354" t="s">
-        <v>40</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D354">
-        <v>2100</v>
-      </c>
-      <c r="E354">
-        <v>0.3</v>
-      </c>
-      <c r="F354">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
     </row>
@@ -8670,26 +8621,10 @@
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B415" s="6"/>
-      <c r="C415" s="6"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F354" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F354">
-      <sortCondition descending="1" ref="A1:A354"/>
+  <autoFilter ref="A1:F350" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F350">
+      <sortCondition descending="1" ref="A1:A350"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:C1">

--- a/input_data/fuel_mixing_assumptions.xlsx
+++ b/input_data/fuel_mixing_assumptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC67FD9-40B0-4449-9A4F-5D19D1227056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F3020-823F-4D09-9B57-304845B14A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26805" yWindow="-15915" windowWidth="56460" windowHeight="14865" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5095,10 +5095,10 @@
         <v>2021</v>
       </c>
       <c r="E186">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F186">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
@@ -5158,7 +5158,7 @@
         <v>0.05</v>
       </c>
       <c r="F189">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
@@ -5178,7 +5178,7 @@
         <v>0.05</v>
       </c>
       <c r="F190">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
@@ -5195,10 +5195,10 @@
         <v>2021</v>
       </c>
       <c r="E191">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F191">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
@@ -5258,7 +5258,7 @@
         <v>0.05</v>
       </c>
       <c r="F194">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -5278,7 +5278,7 @@
         <v>0.05</v>
       </c>
       <c r="F195">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -5295,10 +5295,10 @@
         <v>2021</v>
       </c>
       <c r="E196">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -5358,7 +5358,7 @@
         <v>0.05</v>
       </c>
       <c r="F199">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -5375,10 +5375,10 @@
         <v>2100</v>
       </c>
       <c r="E200">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F200">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -5458,7 +5458,7 @@
         <v>0.05</v>
       </c>
       <c r="F204">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -5475,10 +5475,10 @@
         <v>2100</v>
       </c>
       <c r="E205">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F205">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -5558,7 +5558,7 @@
         <v>0.05</v>
       </c>
       <c r="F209">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -5575,10 +5575,10 @@
         <v>2100</v>
       </c>
       <c r="E210">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F210">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -5618,7 +5618,7 @@
         <v>0.01</v>
       </c>
       <c r="F212">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -5638,7 +5638,7 @@
         <v>0.05</v>
       </c>
       <c r="F213">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -5655,10 +5655,10 @@
         <v>2040</v>
       </c>
       <c r="E214">
+        <v>0.05</v>
+      </c>
+      <c r="F214">
         <v>0.1</v>
-      </c>
-      <c r="F214">
-        <v>0.02</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -5675,10 +5675,10 @@
         <v>2100</v>
       </c>
       <c r="E215">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F215">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -5718,7 +5718,7 @@
         <v>0.01</v>
       </c>
       <c r="F217">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -5738,7 +5738,7 @@
         <v>0.05</v>
       </c>
       <c r="F218">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -5755,10 +5755,10 @@
         <v>2040</v>
       </c>
       <c r="E219">
+        <v>0.05</v>
+      </c>
+      <c r="F219">
         <v>0.1</v>
-      </c>
-      <c r="F219">
-        <v>0.02</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -5775,10 +5775,10 @@
         <v>2100</v>
       </c>
       <c r="E220">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F220">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -5818,7 +5818,7 @@
         <v>0.01</v>
       </c>
       <c r="F222">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -5838,7 +5838,7 @@
         <v>0.05</v>
       </c>
       <c r="F223">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -5858,7 +5858,7 @@
         <v>0.1</v>
       </c>
       <c r="F224">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
@@ -5878,7 +5878,7 @@
         <v>0.3</v>
       </c>
       <c r="F225">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -5918,7 +5918,7 @@
         <v>0.01</v>
       </c>
       <c r="F227">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
@@ -5938,7 +5938,7 @@
         <v>0.05</v>
       </c>
       <c r="F228">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
@@ -5958,7 +5958,7 @@
         <v>0.1</v>
       </c>
       <c r="F229">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
@@ -5978,7 +5978,7 @@
         <v>0.3</v>
       </c>
       <c r="F230">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -6018,7 +6018,7 @@
         <v>0.01</v>
       </c>
       <c r="F232">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
@@ -6038,7 +6038,7 @@
         <v>0.05</v>
       </c>
       <c r="F233">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -6058,7 +6058,7 @@
         <v>0.1</v>
       </c>
       <c r="F234">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -6078,7 +6078,7 @@
         <v>0.3</v>
       </c>
       <c r="F235">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -6118,7 +6118,7 @@
         <v>0.01</v>
       </c>
       <c r="F237">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -6138,7 +6138,7 @@
         <v>0.05</v>
       </c>
       <c r="F238">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -6158,7 +6158,7 @@
         <v>0.1</v>
       </c>
       <c r="F239">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
@@ -6178,7 +6178,7 @@
         <v>0.3</v>
       </c>
       <c r="F240">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">

--- a/input_data/fuel_mixing_assumptions.xlsx
+++ b/input_data/fuel_mixing_assumptions.xlsx
@@ -5,20 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F3020-823F-4D09-9B57-304845B14A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D989FBA9-D8DE-4872-8A5A-33FF6F6A97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="1" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="927" firstSheet="2" activeTab="2" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
     <sheet name="supply_side" sheetId="4" r:id="rId2"/>
-    <sheet name="demand_side_mixing" sheetId="3" r:id="rId3"/>
-    <sheet name="demand_side_constant" sheetId="5" r:id="rId4"/>
+    <sheet name="international_supply_side" sheetId="6" r:id="rId3"/>
+    <sheet name="int_regions" sheetId="7" r:id="rId4"/>
+    <sheet name="demand_side_mixing" sheetId="3" r:id="rId5"/>
+    <sheet name="demand_side_constant" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">international_supply_side!$A$1:$H$350</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="84">
   <si>
     <t>Region</t>
   </si>
@@ -256,6 +259,42 @@
   <si>
     <t>16_01_biogas</t>
   </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>ship_lpg</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>air_lpg</t>
+  </si>
+  <si>
+    <t>ship_gasoline</t>
+  </si>
+  <si>
+    <t>air_gasoline</t>
+  </si>
+  <si>
+    <t>ship_diesel</t>
+  </si>
+  <si>
+    <t>air_diesel</t>
+  </si>
+  <si>
+    <t>ship_kerosene</t>
+  </si>
+  <si>
+    <t>air_av_gas</t>
+  </si>
+  <si>
+    <t>air_jet_fuel</t>
+  </si>
+  <si>
+    <t>air_kerosene</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +402,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -477,6 +516,36 @@
     <dxf>
       <font>
         <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -1146,13 +1215,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1224,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1320,7 +1389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1340,17 +1409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B210" sqref="A1:F350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1391,7 +1460,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1412,7 +1481,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1433,7 +1502,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1454,7 +1523,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1475,7 +1544,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1496,7 +1565,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1517,7 +1586,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1538,7 +1607,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1559,7 +1628,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1580,7 +1649,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1601,7 +1670,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1622,7 +1691,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1643,7 +1712,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1664,7 +1733,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1685,7 +1754,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1706,7 +1775,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1726,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1746,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1835,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1855,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1806,7 +1875,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1826,7 +1895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1846,7 +1915,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1935,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1906,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1926,7 +1995,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1946,7 +2015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +2035,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +2055,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2006,7 +2075,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +2095,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2046,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2066,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2086,7 +2155,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2106,7 +2175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -2126,7 +2195,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2146,7 +2215,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2235,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2255,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2206,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2226,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2246,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2266,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2306,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2326,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2346,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2366,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2386,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2406,7 +2475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2426,7 +2495,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2446,7 +2515,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2466,7 +2535,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2486,7 +2555,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -2506,7 +2575,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2526,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2546,7 +2615,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2566,7 +2635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2586,7 +2655,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2606,7 +2675,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -2626,7 +2695,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2646,7 +2715,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -2666,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2755,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2706,7 +2775,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2795,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -2746,7 +2815,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +2855,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2875,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2826,7 +2895,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2846,7 +2915,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -2886,7 +2955,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2906,7 +2975,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +2995,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -2946,7 +3015,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2966,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +3055,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3075,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3026,7 +3095,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3046,7 +3115,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3066,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -3086,7 +3155,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3175,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3195,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -3146,7 +3215,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -3166,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -3186,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -3226,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3246,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -3266,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3286,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3306,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3326,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -3346,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3366,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3386,7 +3455,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3406,7 +3475,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +3495,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3446,7 +3515,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3466,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -3486,7 +3555,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -3506,7 +3575,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -3526,7 +3595,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -3546,7 +3615,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -3586,7 +3655,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -3606,7 +3675,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -3626,7 +3695,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -3646,7 +3715,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -3666,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3686,7 +3755,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -3706,7 +3775,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3726,7 +3795,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -3746,7 +3815,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -3766,7 +3835,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -3786,7 +3855,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>45</v>
       </c>
@@ -3806,7 +3875,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -3826,7 +3895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -3846,7 +3915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -3866,7 +3935,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -3886,7 +3955,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -3906,7 +3975,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -3926,7 +3995,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -3946,7 +4015,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -3966,7 +4035,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -3986,7 +4055,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -4006,7 +4075,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -4026,7 +4095,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -4046,7 +4115,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -4066,7 +4135,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -4086,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -4106,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -4126,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -4146,7 +4215,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -4166,7 +4235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -4186,7 +4255,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -4206,7 +4275,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -4226,7 +4295,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -4246,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -4266,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -4286,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -4306,7 +4375,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -4326,7 +4395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -4346,7 +4415,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -4366,7 +4435,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -4386,7 +4455,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -4426,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -4446,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -4466,7 +4535,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -4486,7 +4555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>45</v>
       </c>
@@ -4506,7 +4575,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>45</v>
       </c>
@@ -4526,7 +4595,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -4546,7 +4615,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -4566,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -4586,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -4606,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -4626,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -4646,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -4666,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -4686,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -4706,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -4726,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -4746,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -4767,7 +4836,7 @@
       </c>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>45</v>
       </c>
@@ -4788,7 +4857,7 @@
       </c>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -4809,7 +4878,7 @@
       </c>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>45</v>
       </c>
@@ -4830,7 +4899,7 @@
       </c>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -4851,7 +4920,7 @@
       </c>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -4872,7 +4941,7 @@
       </c>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -4893,7 +4962,7 @@
       </c>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -4914,7 +4983,7 @@
       </c>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -4935,7 +5004,7 @@
       </c>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -4956,7 +5025,7 @@
       </c>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -4977,7 +5046,7 @@
       </c>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -4998,7 +5067,7 @@
       </c>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -5019,7 +5088,7 @@
       </c>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -5040,7 +5109,7 @@
       </c>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -5061,7 +5130,7 @@
       </c>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>45</v>
       </c>
@@ -5081,7 +5150,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>46</v>
       </c>
@@ -5101,7 +5170,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -5121,7 +5190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>46</v>
       </c>
@@ -5141,7 +5210,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>46</v>
       </c>
@@ -5161,7 +5230,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>46</v>
       </c>
@@ -5181,7 +5250,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>46</v>
       </c>
@@ -5201,7 +5270,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>46</v>
       </c>
@@ -5221,7 +5290,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>46</v>
       </c>
@@ -5241,7 +5310,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>46</v>
       </c>
@@ -5261,7 +5330,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -5281,7 +5350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>46</v>
       </c>
@@ -5301,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>46</v>
       </c>
@@ -5321,7 +5390,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -5341,7 +5410,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -5361,7 +5430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -5381,7 +5450,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -5401,7 +5470,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>46</v>
       </c>
@@ -5421,7 +5490,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>46</v>
       </c>
@@ -5441,7 +5510,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>46</v>
       </c>
@@ -5461,7 +5530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>46</v>
       </c>
@@ -5481,7 +5550,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>46</v>
       </c>
@@ -5501,7 +5570,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>46</v>
       </c>
@@ -5521,7 +5590,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -5541,7 +5610,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>46</v>
       </c>
@@ -5561,7 +5630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>46</v>
       </c>
@@ -5581,7 +5650,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>46</v>
       </c>
@@ -5601,7 +5670,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -5621,7 +5690,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -5641,7 +5710,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>46</v>
       </c>
@@ -5661,7 +5730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>46</v>
       </c>
@@ -5681,7 +5750,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>46</v>
       </c>
@@ -5701,7 +5770,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>46</v>
       </c>
@@ -5721,7 +5790,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -5741,7 +5810,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -5761,7 +5830,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>46</v>
       </c>
@@ -5781,7 +5850,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>46</v>
       </c>
@@ -5801,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>46</v>
       </c>
@@ -5821,7 +5890,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>46</v>
       </c>
@@ -5841,7 +5910,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -5861,7 +5930,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>46</v>
       </c>
@@ -5881,7 +5950,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>46</v>
       </c>
@@ -5901,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>46</v>
       </c>
@@ -5921,7 +5990,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>46</v>
       </c>
@@ -5941,7 +6010,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>46</v>
       </c>
@@ -5961,7 +6030,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>46</v>
       </c>
@@ -5981,7 +6050,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>46</v>
       </c>
@@ -6001,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>46</v>
       </c>
@@ -6021,7 +6090,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>46</v>
       </c>
@@ -6041,7 +6110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>46</v>
       </c>
@@ -6061,7 +6130,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>46</v>
       </c>
@@ -6081,7 +6150,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>46</v>
       </c>
@@ -6101,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>46</v>
       </c>
@@ -6121,7 +6190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>46</v>
       </c>
@@ -6141,7 +6210,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>46</v>
       </c>
@@ -6161,7 +6230,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>46</v>
       </c>
@@ -6181,7 +6250,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -6201,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -6221,7 +6290,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -6241,7 +6310,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -6261,7 +6330,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -6281,7 +6350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -6301,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -6321,7 +6390,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -6341,7 +6410,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -6361,7 +6430,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -6381,7 +6450,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -6401,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6421,7 +6490,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -6441,7 +6510,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -6461,7 +6530,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -6481,7 +6550,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -6501,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -6521,7 +6590,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -6541,7 +6610,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -6561,7 +6630,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -6601,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -6621,7 +6690,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -6641,7 +6710,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -6661,7 +6730,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6681,7 +6750,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -6701,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -6721,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6741,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -6761,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -6781,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -6801,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -6821,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -6841,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6861,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -6881,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -6901,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -6921,7 +6990,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -6941,7 +7010,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -6961,7 +7030,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -6981,7 +7050,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -7001,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -7021,7 +7090,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -7041,7 +7110,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -7061,7 +7130,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -7081,7 +7150,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -7101,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -7121,7 +7190,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -7141,7 +7210,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -7161,7 +7230,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -7181,7 +7250,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -7201,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -7221,7 +7290,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -7241,7 +7310,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -7261,7 +7330,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -7281,7 +7350,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -7301,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>30</v>
       </c>
@@ -7321,7 +7390,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>30</v>
       </c>
@@ -7341,7 +7410,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -7361,7 +7430,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>30</v>
       </c>
@@ -7381,7 +7450,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -7401,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>30</v>
       </c>
@@ -7421,7 +7490,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>30</v>
       </c>
@@ -7441,7 +7510,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>30</v>
       </c>
@@ -7461,7 +7530,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>30</v>
       </c>
@@ -7481,7 +7550,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>30</v>
       </c>
@@ -7501,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>30</v>
       </c>
@@ -7521,7 +7590,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>30</v>
       </c>
@@ -7541,7 +7610,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -7561,7 +7630,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7581,7 +7650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>30</v>
       </c>
@@ -7601,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>30</v>
       </c>
@@ -7621,7 +7690,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>30</v>
       </c>
@@ -7641,7 +7710,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>30</v>
       </c>
@@ -7661,7 +7730,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>30</v>
       </c>
@@ -7681,7 +7750,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -7701,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>30</v>
       </c>
@@ -7721,7 +7790,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>30</v>
       </c>
@@ -7741,7 +7810,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>30</v>
       </c>
@@ -7761,7 +7830,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>30</v>
       </c>
@@ -7781,7 +7850,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>30</v>
       </c>
@@ -7801,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>30</v>
       </c>
@@ -7821,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>30</v>
       </c>
@@ -7841,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>30</v>
       </c>
@@ -7861,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -7881,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>30</v>
       </c>
@@ -7901,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>30</v>
       </c>
@@ -7921,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>30</v>
       </c>
@@ -7941,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>30</v>
       </c>
@@ -7961,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>30</v>
       </c>
@@ -7981,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>30</v>
       </c>
@@ -8001,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>30</v>
       </c>
@@ -8021,7 +8090,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>30</v>
       </c>
@@ -8041,7 +8110,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>30</v>
       </c>
@@ -8061,7 +8130,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>30</v>
       </c>
@@ -8081,7 +8150,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>30</v>
       </c>
@@ -8101,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>30</v>
       </c>
@@ -8121,7 +8190,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>30</v>
       </c>
@@ -8141,7 +8210,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>30</v>
       </c>
@@ -8161,7 +8230,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>30</v>
       </c>
@@ -8181,7 +8250,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>30</v>
       </c>
@@ -8201,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -8221,7 +8290,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>30</v>
       </c>
@@ -8241,7 +8310,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>30</v>
       </c>
@@ -8261,7 +8330,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8350,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>30</v>
       </c>
@@ -8301,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8321,7 +8390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>30</v>
       </c>
@@ -8341,7 +8410,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>30</v>
       </c>
@@ -8361,7 +8430,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>30</v>
       </c>
@@ -8381,243 +8450,243 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
@@ -8628,19 +8697,19 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8650,6 +8719,521 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199A55F7-775E-41E6-8F2F-58868FFF4869}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="D1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <v>2030</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>2030</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>2030</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>2030</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>2030</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>2030</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>2030</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>2030</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>2030</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>2030</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H350" xr:uid="{199A55F7-775E-41E6-8F2F-58868FFF4869}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H350">
+      <sortCondition ref="F1:F350"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8F633-3FA5-498D-9391-5FCF48EB9391}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
@@ -8657,9 +9241,9 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8703,7 +9287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -8739,7 +9323,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -8775,7 +9359,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8811,7 +9395,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -8847,7 +9431,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8883,7 +9467,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8919,7 +9503,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -8955,7 +9539,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -8991,7 +9575,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -9027,7 +9611,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9063,7 +9647,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -9099,7 +9683,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -9135,7 +9719,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -9171,7 +9755,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9207,7 +9791,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -9235,7 +9819,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9249,7 +9833,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -9263,7 +9847,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -9277,7 +9861,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -9291,7 +9875,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -9305,7 +9889,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -9319,7 +9903,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -9333,7 +9917,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -9347,7 +9931,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -9361,7 +9945,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -9375,7 +9959,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -9389,7 +9973,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -9403,7 +9987,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -9417,7 +10001,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -9425,7 +10009,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -9433,7 +10017,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -9441,7 +10025,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -9449,7 +10033,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -9457,7 +10041,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -9465,7 +10049,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -9473,7 +10057,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -9481,7 +10065,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -9489,7 +10073,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -9497,7 +10081,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -9505,7 +10089,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -9513,7 +10097,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -9521,7 +10105,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -9529,7 +10113,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -9537,7 +10121,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -9545,7 +10129,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -9553,7 +10137,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -9561,7 +10145,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -9569,7 +10153,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -9577,7 +10161,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -9585,7 +10169,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -9593,7 +10177,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -9601,7 +10185,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -9609,7 +10193,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -9617,7 +10201,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -9625,7 +10209,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -9633,7 +10217,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -9641,7 +10225,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -9649,7 +10233,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -9657,7 +10241,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -9665,7 +10249,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -9673,7 +10257,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -9681,7 +10265,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -9689,7 +10273,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -9697,7 +10281,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -9705,7 +10289,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -9713,7 +10297,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -9721,7 +10305,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -9729,7 +10313,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -9737,7 +10321,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -9745,7 +10329,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -9753,7 +10337,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -9761,7 +10345,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -9769,7 +10353,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -9777,7 +10361,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -9785,7 +10369,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -9793,7 +10377,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -9801,7 +10385,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -9809,7 +10393,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -9817,7 +10401,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -9825,7 +10409,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -9833,7 +10417,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -9841,7 +10425,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -9849,7 +10433,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -9857,7 +10441,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -9865,7 +10449,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -9873,7 +10457,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -9881,7 +10465,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -9889,7 +10473,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -9897,7 +10481,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -9905,7 +10489,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -9913,7 +10497,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -9921,7 +10505,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -9929,7 +10513,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -9937,7 +10521,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -9945,7 +10529,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -9953,7 +10537,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -9961,7 +10545,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -9969,7 +10553,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -9977,7 +10561,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -9985,7 +10569,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -9993,7 +10577,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -10001,7 +10585,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -10052,7 +10636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EC78C3-2980-48CE-A3ED-45FF1000A40C}">
   <dimension ref="A1:C103"/>
   <sheetViews>
@@ -10060,9 +10644,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -10073,7 +10657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10084,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -10095,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -10106,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -10117,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -10128,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -10139,292 +10723,292 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
     </row>
   </sheetData>

--- a/input_data/fuel_mixing_assumptions.xlsx
+++ b/input_data/fuel_mixing_assumptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D989FBA9-D8DE-4872-8A5A-33FF6F6A97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21814D45-AE13-46BF-B4AE-1135A5550C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="927" firstSheet="2" activeTab="2" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="demand_side_constant" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">international_supply_side!$A$1:$H$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">international_supply_side!$A$1:$H$347</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">supply_side!$A$1:$F$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="84">
   <si>
     <t>Region</t>
   </si>
@@ -8720,10 +8720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199A55F7-775E-41E6-8F2F-58868FFF4869}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:E1"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9014,10 +9014,790 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <v>2040</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>2040</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>2040</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>2040</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>2040</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>2040</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>2040</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>2040</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>2040</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>2040</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>2050</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23">
+        <v>2050</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>2050</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>2050</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>2050</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>2050</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>2050</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>2050</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30">
+        <v>2050</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <v>2050</v>
+      </c>
+      <c r="G31">
+        <v>0.1</v>
+      </c>
+      <c r="H31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32">
+        <v>2070</v>
+      </c>
+      <c r="G32">
+        <v>0.1</v>
+      </c>
+      <c r="H32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33">
+        <v>2070</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>2070</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+      <c r="H34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>2070</v>
+      </c>
+      <c r="G35">
+        <v>0.1</v>
+      </c>
+      <c r="H35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>2070</v>
+      </c>
+      <c r="G36">
+        <v>0.1</v>
+      </c>
+      <c r="H36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>2070</v>
+      </c>
+      <c r="G37">
+        <v>0.1</v>
+      </c>
+      <c r="H37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38">
+        <v>2070</v>
+      </c>
+      <c r="G38">
+        <v>0.1</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <v>2070</v>
+      </c>
+      <c r="G39">
+        <v>0.1</v>
+      </c>
+      <c r="H39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40">
+        <v>2070</v>
+      </c>
+      <c r="G40">
+        <v>0.1</v>
+      </c>
+      <c r="H40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41">
+        <v>2070</v>
+      </c>
+      <c r="G41">
+        <v>0.1</v>
+      </c>
+      <c r="H41">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H350" xr:uid="{199A55F7-775E-41E6-8F2F-58868FFF4869}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H350">
-      <sortCondition ref="F1:F350"/>
+  <autoFilter ref="A1:H347" xr:uid="{199A55F7-775E-41E6-8F2F-58868FFF4869}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H347">
+      <sortCondition ref="F1:F347"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D1:E1">
